--- a/Cherima5_材料清单-2024.6.14.xlsx
+++ b/Cherima5_材料清单-2024.6.14.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\__Workspace\Hardware\【分件】Chimera_5_XMU_修改\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4164C79-C727-4303-AA76-C2287913FA50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20B509D0-44D1-402D-9571-2AF11C89ABEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="186">
   <si>
     <t>序号</t>
   </si>
@@ -151,16 +151,10 @@
     <t>XT30插头</t>
   </si>
   <si>
-    <t>机架XT60插头处→RK3399pro电源模块</t>
-  </si>
-  <si>
     <t>Amass艾迈斯XT30公母系列迷你航模动力电池插头XT30UPB焊接电路板-淘宝网 (taobao.com)</t>
   </si>
   <si>
     <t>公头</t>
-  </si>
-  <si>
-    <t>机架XT60插头处→云台</t>
   </si>
   <si>
     <t>硅胶线</t>
@@ -425,10 +419,6 @@
     <t>CP2102模块USB转TTL升级板UBS转串口STC单片机下载刷机六合一UART-tmall.com天猫</t>
   </si>
   <si>
-    <t>电子元器件散件-云台控制板</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>主结构-1</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -632,6 +622,124 @@
   <si>
     <t>MTF01P Px4</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>电子元器件散件-分电板</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>稳压模块</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>AJ39-12V</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意电压，12V，这个会买很多，前往不能搞混</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>DC-DC降压电源模块5.5V-36V输入转3.3/5/9V12V输出3A大功率降压板-淘宝网 (taobao.com)</t>
+  </si>
+  <si>
+    <t>块</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>连接端子</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>个</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>SH1.0mm立贴/卧贴针座SMT连接器座子 2P/3/4/5/6-10P插座/接插件-淘宝网 (taobao.com)</t>
+  </si>
+  <si>
+    <t>MX1.25mm立贴/卧贴/2P/3P/4/5-12P 贴片连接器接插件 SMT针座端子-淘宝网 (taobao.com)</t>
+  </si>
+  <si>
+    <t>SH1.0mm-4Pin-立贴</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>MX1.25mm-4Pin-卧贴</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>定制网线RJ45转端子4芯8芯XH2.54双绞线PH2.0转8P监控数据线1.25-淘宝网 (taobao.com)</t>
+  </si>
+  <si>
+    <t>线定制</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>根</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>RJ45转SH1.0mm-4pin 7.5cm</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>4p5p双层屏蔽SH1.0/MX1.25/PH2.0/XH2.54杜邦2.54端子屏蔽线28AWG-淘宝网 (taobao.com)</t>
+  </si>
+  <si>
+    <t>计算机板-分电板，问一下能不能订7.5cm的，不行就是10cm</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>MX1.25mm-4pin转MX1.25mm-4pin 反相 5cm 带信号屏蔽</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>SH1.0mm-4pin转SH1.0mm-4pin 反相 5cm</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞控-分电板</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>自组网网口-分电板，问一下能不能订5cm的，不行就是10cm</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>SH1.0mm-4pin转SH1.0mm-4pin 反相 15cm</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>分电板-GPIO，这个好像可以直接买</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>自组网供电</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>MX1.25mm-4pin 单头</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 10cm</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>天线固定胶</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>天线固定胶水适用于睿思凯FRSKY R9 mini X4RSB XM+ R-XSR接收机-淘宝网 (taobao.com)</t>
   </si>
 </sst>
 </file>
@@ -695,7 +803,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -720,6 +828,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -734,7 +848,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -768,6 +882,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -783,7 +900,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -815,7 +932,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>194593</xdr:colOff>
+      <xdr:colOff>194592</xdr:colOff>
       <xdr:row>56</xdr:row>
       <xdr:rowOff>199304</xdr:rowOff>
     </xdr:to>
@@ -854,13 +971,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>489857</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>234499</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>76631</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1155,17 +1272,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:P90"/>
+  <dimension ref="A2:P99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B86" sqref="B86:H86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="20.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="34.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="51.875" style="1" customWidth="1"/>
     <col min="4" max="7" width="9" style="1"/>
     <col min="8" max="8" width="60.25" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
@@ -1201,24 +1318,24 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="12"/>
       <c r="B4" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>144</v>
+        <v>117</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>141</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
@@ -1229,10 +1346,10 @@
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="12"/>
       <c r="B5" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>144</v>
+        <v>118</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>141</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
@@ -1243,10 +1360,10 @@
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="12"/>
       <c r="B6" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>143</v>
+        <v>121</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>140</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
@@ -1257,10 +1374,10 @@
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="12"/>
       <c r="B7" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>143</v>
+        <v>122</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>140</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
@@ -1271,10 +1388,10 @@
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="12"/>
       <c r="B8" s="12" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
@@ -1285,10 +1402,10 @@
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="12"/>
       <c r="B9" s="12" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
@@ -1299,10 +1416,10 @@
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="12"/>
       <c r="B10" s="12" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
@@ -1313,10 +1430,10 @@
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="12"/>
       <c r="B11" s="12" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
@@ -1327,10 +1444,10 @@
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="12"/>
       <c r="B12" s="12" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
@@ -1341,10 +1458,10 @@
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="12"/>
       <c r="B13" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>140</v>
+        <v>129</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>137</v>
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
@@ -1355,9 +1472,9 @@
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="12"/>
       <c r="B14" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="C14" s="13"/>
+        <v>130</v>
+      </c>
+      <c r="C14" s="14"/>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
@@ -1367,9 +1484,9 @@
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="12"/>
       <c r="B15" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="C15" s="13"/>
+        <v>131</v>
+      </c>
+      <c r="C15" s="14"/>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
@@ -1379,9 +1496,9 @@
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="12"/>
       <c r="B16" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="C16" s="13"/>
+        <v>132</v>
+      </c>
+      <c r="C16" s="14"/>
       <c r="D16" s="12"/>
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
@@ -1391,9 +1508,9 @@
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="12"/>
       <c r="B17" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="C17" s="13"/>
+        <v>133</v>
+      </c>
+      <c r="C17" s="14"/>
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
@@ -1403,9 +1520,9 @@
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="12"/>
       <c r="B18" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="C18" s="13"/>
+        <v>134</v>
+      </c>
+      <c r="C18" s="14"/>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
@@ -1415,9 +1532,9 @@
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="12"/>
       <c r="B19" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="C19" s="13"/>
+        <v>120</v>
+      </c>
+      <c r="C19" s="14"/>
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
@@ -1427,9 +1544,9 @@
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="12"/>
       <c r="B20" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="C20" s="13"/>
+        <v>119</v>
+      </c>
+      <c r="C20" s="14"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
@@ -1439,10 +1556,10 @@
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="12"/>
       <c r="B21" s="12" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
@@ -1451,20 +1568,20 @@
       <c r="H21" s="12"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A22" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
+      <c r="A22" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
       <c r="I22" s="4"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="15" t="s">
         <v>10</v>
       </c>
       <c r="I23" s="5" t="s">
@@ -1472,31 +1589,31 @@
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B24" s="14"/>
+      <c r="B24" s="15"/>
       <c r="I24" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B25" s="14"/>
+      <c r="B25" s="15"/>
       <c r="I25" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B26" s="14"/>
+      <c r="B26" s="15"/>
       <c r="I26" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B27" s="14"/>
+      <c r="B27" s="15"/>
       <c r="I27" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B28" s="14"/>
+      <c r="B28" s="15"/>
       <c r="I28" s="5" t="s">
         <v>14</v>
       </c>
@@ -1505,46 +1622,46 @@
       <c r="B29" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I29" s="15" t="s">
+      <c r="I29" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="J29" s="15"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="15"/>
-      <c r="M29" s="15"/>
-      <c r="N29" s="15"/>
-      <c r="O29" s="15"/>
-      <c r="P29" s="15"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="16"/>
+      <c r="N29" s="16"/>
+      <c r="O29" s="16"/>
+      <c r="P29" s="16"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="I30" s="15"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="15"/>
-      <c r="L30" s="15"/>
-      <c r="M30" s="15"/>
-      <c r="N30" s="15"/>
-      <c r="O30" s="15"/>
-      <c r="P30" s="15"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="16"/>
+      <c r="N30" s="16"/>
+      <c r="O30" s="16"/>
+      <c r="P30" s="16"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="15"/>
-      <c r="L31" s="15"/>
-      <c r="M31" s="15"/>
-      <c r="N31" s="15"/>
-      <c r="O31" s="15"/>
-      <c r="P31" s="15"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="16"/>
+      <c r="O31" s="16"/>
+      <c r="P31" s="16"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="I32" s="15"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="15"/>
-      <c r="L32" s="15"/>
-      <c r="M32" s="15"/>
-      <c r="N32" s="15"/>
-      <c r="O32" s="15"/>
-      <c r="P32" s="15"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
+      <c r="N32" s="16"/>
+      <c r="O32" s="16"/>
+      <c r="P32" s="16"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="I33" s="5" t="s">
@@ -1559,97 +1676,97 @@
       <c r="P33" s="4"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="I34" s="15" t="s">
+      <c r="I34" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="J34" s="15"/>
-      <c r="K34" s="15"/>
-      <c r="L34" s="15"/>
-      <c r="M34" s="15"/>
-      <c r="N34" s="15"/>
-      <c r="O34" s="15"/>
-      <c r="P34" s="15"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="16"/>
+      <c r="N34" s="16"/>
+      <c r="O34" s="16"/>
+      <c r="P34" s="16"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="I35" s="15"/>
-      <c r="J35" s="15"/>
-      <c r="K35" s="15"/>
-      <c r="L35" s="15"/>
-      <c r="M35" s="15"/>
-      <c r="N35" s="15"/>
-      <c r="O35" s="15"/>
-      <c r="P35" s="15"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="16"/>
+      <c r="M35" s="16"/>
+      <c r="N35" s="16"/>
+      <c r="O35" s="16"/>
+      <c r="P35" s="16"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I36" s="16" t="s">
+      <c r="I36" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="J36" s="17"/>
-      <c r="K36" s="17"/>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
-      <c r="N36" s="17"/>
-      <c r="O36" s="17"/>
-      <c r="P36" s="17"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="18"/>
+      <c r="M36" s="18"/>
+      <c r="N36" s="18"/>
+      <c r="O36" s="18"/>
+      <c r="P36" s="18"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="I37" s="17"/>
-      <c r="J37" s="17"/>
-      <c r="K37" s="17"/>
-      <c r="L37" s="17"/>
-      <c r="M37" s="17"/>
-      <c r="N37" s="17"/>
-      <c r="O37" s="17"/>
-      <c r="P37" s="17"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="18"/>
+      <c r="M37" s="18"/>
+      <c r="N37" s="18"/>
+      <c r="O37" s="18"/>
+      <c r="P37" s="18"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="I38" s="17"/>
-      <c r="J38" s="17"/>
-      <c r="K38" s="17"/>
-      <c r="L38" s="17"/>
-      <c r="M38" s="17"/>
-      <c r="N38" s="17"/>
-      <c r="O38" s="17"/>
-      <c r="P38" s="17"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="18"/>
+      <c r="L38" s="18"/>
+      <c r="M38" s="18"/>
+      <c r="N38" s="18"/>
+      <c r="O38" s="18"/>
+      <c r="P38" s="18"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I39" s="15" t="s">
+      <c r="I39" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="J39" s="15"/>
-      <c r="K39" s="15"/>
-      <c r="L39" s="15"/>
-      <c r="M39" s="15"/>
-      <c r="N39" s="15"/>
-      <c r="O39" s="15"/>
-      <c r="P39" s="15"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="16"/>
+      <c r="L39" s="16"/>
+      <c r="M39" s="16"/>
+      <c r="N39" s="16"/>
+      <c r="O39" s="16"/>
+      <c r="P39" s="16"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="I40" s="15"/>
-      <c r="J40" s="15"/>
-      <c r="K40" s="15"/>
-      <c r="L40" s="15"/>
-      <c r="M40" s="15"/>
-      <c r="N40" s="15"/>
-      <c r="O40" s="15"/>
-      <c r="P40" s="15"/>
+      <c r="I40" s="16"/>
+      <c r="J40" s="16"/>
+      <c r="K40" s="16"/>
+      <c r="L40" s="16"/>
+      <c r="M40" s="16"/>
+      <c r="N40" s="16"/>
+      <c r="O40" s="16"/>
+      <c r="P40" s="16"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="H41" s="2"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="15"/>
-      <c r="K41" s="15"/>
-      <c r="L41" s="15"/>
-      <c r="M41" s="15"/>
-      <c r="N41" s="15"/>
-      <c r="O41" s="15"/>
-      <c r="P41" s="15"/>
+      <c r="I41" s="16"/>
+      <c r="J41" s="16"/>
+      <c r="K41" s="16"/>
+      <c r="L41" s="16"/>
+      <c r="M41" s="16"/>
+      <c r="N41" s="16"/>
+      <c r="O41" s="16"/>
+      <c r="P41" s="16"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="I42" s="6" t="s">
@@ -1661,10 +1778,10 @@
         <v>26</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
@@ -1672,915 +1789,1132 @@
         <v>26</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I44" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A45" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="B45" s="13"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="13"/>
-      <c r="H45" s="13"/>
+      <c r="A45" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="14"/>
       <c r="I45" s="4"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" s="12"/>
-      <c r="B46" s="12"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="12"/>
-      <c r="I46" s="4"/>
+      <c r="B46" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="D46" s="12">
+        <v>1</v>
+      </c>
+      <c r="E46" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="F46" s="12">
+        <v>4</v>
+      </c>
+      <c r="G46" s="12">
+        <f t="shared" ref="G46:G48" si="0">D46*F46</f>
+        <v>4</v>
+      </c>
+      <c r="H46" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="I46" s="7" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A47" s="13" t="s">
+      <c r="A47" s="12"/>
+      <c r="B47" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="D47" s="12">
+        <v>3</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="F47" s="12">
+        <v>0.08</v>
+      </c>
+      <c r="G47" s="12">
+        <f t="shared" si="0"/>
+        <v>0.24</v>
+      </c>
+      <c r="H47" s="12"/>
+      <c r="I47" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A48" s="12"/>
+      <c r="B48" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="D48" s="12">
+        <v>1</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="F48" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="G48" s="12">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+      <c r="H48" s="12"/>
+      <c r="I48" s="7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" s="12"/>
+      <c r="B49" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D49" s="12">
+        <v>2</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="F49" s="12">
+        <v>1.4</v>
+      </c>
+      <c r="G49" s="12">
+        <f t="shared" ref="G49" si="1">D49*F49</f>
+        <v>2.8</v>
+      </c>
+      <c r="H49" s="12"/>
+      <c r="I49" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" s="12"/>
+      <c r="B50" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="D50" s="12">
+        <v>1</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="I50" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" s="12"/>
+      <c r="B51" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="D51" s="12">
+        <v>1</v>
+      </c>
+      <c r="E51" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="F51" s="12"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="I51" s="7"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52" s="12"/>
+      <c r="B52" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="D52" s="12">
+        <v>1</v>
+      </c>
+      <c r="E52" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="F52" s="12"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="I52" s="7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" s="12"/>
+      <c r="B53" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="D53" s="12">
+        <v>1</v>
+      </c>
+      <c r="E53" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="F53" s="12"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="I53" s="7"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54" s="12"/>
+      <c r="B54" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D54" s="12">
+        <v>1</v>
+      </c>
+      <c r="E54" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="F54" s="12"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="I54" s="7"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B47" s="13"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="13"/>
-      <c r="H47" s="13"/>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B48" s="1" t="s">
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="14"/>
+      <c r="H55" s="14"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B56" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C48" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="D48" s="1">
+      <c r="C56" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="D56" s="1">
         <v>4</v>
       </c>
-      <c r="G48" s="1">
+      <c r="G56" s="1">
         <v>622</v>
       </c>
-      <c r="I48" s="7" t="s">
+      <c r="I56" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B57" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D57" s="1">
+        <v>4</v>
+      </c>
+      <c r="G57" s="1">
+        <v>14.9</v>
+      </c>
+      <c r="I57" s="7" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B49" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D49" s="1">
-        <v>4</v>
-      </c>
-      <c r="G49" s="1">
-        <v>14.9</v>
-      </c>
-      <c r="I49" s="7" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B50" s="1" t="s">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B58" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C50" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="D50" s="1">
-        <v>1</v>
-      </c>
-      <c r="G50" s="1">
+      <c r="C58" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="D58" s="1">
+        <v>1</v>
+      </c>
+      <c r="G58" s="1">
         <v>369</v>
       </c>
-      <c r="H50" s="1" t="s">
+      <c r="H58" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I50" s="4" t="s">
+      <c r="I58" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B51" s="10" t="s">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B59" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10">
-        <v>1</v>
-      </c>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10">
+      <c r="C59" s="10"/>
+      <c r="D59" s="10">
+        <v>1</v>
+      </c>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10">
         <v>5</v>
       </c>
-      <c r="G51" s="10">
-        <f>D51*F51</f>
+      <c r="G59" s="10">
+        <f>D59*F59</f>
         <v>5</v>
       </c>
-      <c r="H51" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="I51" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B52" s="1" t="s">
+      <c r="H59" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="I59" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B60" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D52" s="1">
-        <v>1</v>
-      </c>
-      <c r="F52" s="1">
+      <c r="D60" s="1">
+        <v>1</v>
+      </c>
+      <c r="F60" s="1">
         <v>2.2000000000000002</v>
       </c>
-      <c r="G52" s="1">
-        <f>D52*F52</f>
+      <c r="G60" s="1">
+        <f>D60*F60</f>
         <v>2.2000000000000002</v>
       </c>
-      <c r="I52" s="4" t="s">
+      <c r="I60" s="4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B53" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D53" s="1">
-        <v>1</v>
-      </c>
-      <c r="F53" s="1">
-        <v>3.8</v>
-      </c>
-      <c r="G53" s="1">
-        <f>D53*F53</f>
-        <v>3.8</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I53" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B54" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D54" s="1">
-        <v>1</v>
-      </c>
-      <c r="F54" s="1">
-        <v>1.4</v>
-      </c>
-      <c r="G54" s="1">
-        <f>D54*F54</f>
-        <v>1.4</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I54" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B55" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D55" s="1">
-        <v>1</v>
-      </c>
-      <c r="F55" s="1">
-        <v>1.4</v>
-      </c>
-      <c r="G55" s="1">
-        <f t="shared" ref="G55:G57" si="0">D55*F55</f>
-        <v>1.4</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I55" s="4"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B56" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C56" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D56" s="10">
-        <v>2</v>
-      </c>
-      <c r="E56" s="10"/>
-      <c r="F56" s="10">
-        <v>1</v>
-      </c>
-      <c r="G56" s="10">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="H56" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="I56" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B57" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C57" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D57" s="10">
-        <v>2</v>
-      </c>
-      <c r="E57" s="10"/>
-      <c r="F57" s="10">
-        <v>1</v>
-      </c>
-      <c r="G57" s="10">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="H57" s="10"/>
-      <c r="I57" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B58" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C58" s="10"/>
-      <c r="D58" s="10"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="10"/>
-      <c r="G58" s="10"/>
-      <c r="H58" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="I58" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I59" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A60" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="B60" s="13"/>
-      <c r="C60" s="13"/>
-      <c r="D60" s="13"/>
-      <c r="E60" s="13"/>
-      <c r="F60" s="13"/>
-      <c r="G60" s="13"/>
-      <c r="H60" s="13"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B61" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C61" s="9" t="s">
-        <v>154</v>
+        <v>37</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="D61" s="1">
         <v>1</v>
       </c>
-      <c r="E61" s="9" t="s">
-        <v>159</v>
-      </c>
       <c r="F61" s="1">
-        <v>488</v>
+        <v>3.8</v>
       </c>
       <c r="G61" s="1">
-        <f t="shared" ref="G61:G88" si="1">D61*F61</f>
-        <v>488</v>
-      </c>
-      <c r="I61" s="7" t="s">
-        <v>153</v>
+        <f>D61*F61</f>
+        <v>3.8</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I61" s="4" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B62" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="C62" s="9" t="s">
-        <v>160</v>
+      <c r="B62" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="D62" s="1">
         <v>1</v>
       </c>
       <c r="F62" s="1">
-        <v>138</v>
+        <v>1.4</v>
       </c>
       <c r="G62" s="1">
-        <f t="shared" si="1"/>
-        <v>138</v>
-      </c>
-      <c r="I62" s="7" t="s">
-        <v>155</v>
+        <f>D62*F62</f>
+        <v>1.4</v>
+      </c>
+      <c r="I62" s="4" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B63" s="9" t="s">
-        <v>157</v>
+      <c r="B63" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="D63" s="1">
         <v>1</v>
       </c>
       <c r="F63" s="1">
-        <v>88</v>
+        <v>1.4</v>
       </c>
       <c r="G63" s="1">
-        <f t="shared" si="1"/>
-        <v>88</v>
-      </c>
-      <c r="I63" s="7" t="s">
-        <v>156</v>
-      </c>
+        <f t="shared" ref="G63:G65" si="2">D63*F63</f>
+        <v>1.4</v>
+      </c>
+      <c r="I63" s="4"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B64" s="10" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D64" s="10">
-        <v>1</v>
-      </c>
-      <c r="E64" s="10" t="s">
-        <v>58</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="E64" s="10"/>
       <c r="F64" s="10">
-        <v>540</v>
+        <v>1</v>
       </c>
       <c r="G64" s="10">
-        <f t="shared" si="1"/>
-        <v>540</v>
-      </c>
-      <c r="H64" s="10"/>
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="H64" s="10" t="s">
+        <v>47</v>
+      </c>
       <c r="I64" s="4" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B65" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D65" s="1">
-        <v>1</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F65" s="1">
-        <v>75</v>
-      </c>
-      <c r="G65" s="1">
-        <f t="shared" si="1"/>
-        <v>75</v>
-      </c>
+      <c r="B65" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D65" s="10">
+        <v>2</v>
+      </c>
+      <c r="E65" s="10"/>
+      <c r="F65" s="10">
+        <v>1</v>
+      </c>
+      <c r="G65" s="10">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="H65" s="10"/>
       <c r="I65" s="4" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B66" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C66" s="10"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="10"/>
+      <c r="F66" s="10"/>
+      <c r="G66" s="10"/>
+      <c r="H66" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="I66" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I67" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A68" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B68" s="14"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+      <c r="G68" s="14"/>
+      <c r="H68" s="14"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B69" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="D69" s="1">
+        <v>1</v>
+      </c>
+      <c r="E69" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="F69" s="1">
+        <v>488</v>
+      </c>
+      <c r="G69" s="1">
+        <f t="shared" ref="G69:G97" si="3">D69*F69</f>
+        <v>488</v>
+      </c>
+      <c r="I69" s="7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B70" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="D70" s="1">
+        <v>1</v>
+      </c>
+      <c r="F70" s="1">
+        <v>138</v>
+      </c>
+      <c r="G70" s="1">
+        <f t="shared" si="3"/>
+        <v>138</v>
+      </c>
+      <c r="I70" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B71" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="D71" s="1">
+        <v>1</v>
+      </c>
+      <c r="F71" s="1">
+        <v>88</v>
+      </c>
+      <c r="G71" s="1">
+        <f t="shared" si="3"/>
+        <v>88</v>
+      </c>
+      <c r="I71" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B72" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C72" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D72" s="10">
+        <v>1</v>
+      </c>
+      <c r="E72" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F72" s="10">
+        <v>540</v>
+      </c>
+      <c r="G72" s="10">
+        <f t="shared" si="3"/>
+        <v>540</v>
+      </c>
+      <c r="H72" s="10"/>
+      <c r="I72" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B73" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D73" s="1">
+        <v>1</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F73" s="1">
+        <v>75</v>
+      </c>
+      <c r="G73" s="1">
+        <f t="shared" si="3"/>
+        <v>75</v>
+      </c>
+      <c r="I73" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B74" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C74" s="10"/>
+      <c r="D74" s="10">
+        <v>2</v>
+      </c>
+      <c r="E74" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F74" s="10">
+        <v>329</v>
+      </c>
+      <c r="G74" s="10">
+        <f t="shared" si="3"/>
+        <v>658</v>
+      </c>
+      <c r="H74" s="10"/>
+      <c r="I74" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A75" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="C66" s="10"/>
-      <c r="D66" s="10">
-        <v>2</v>
-      </c>
-      <c r="E66" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F66" s="10">
-        <v>329</v>
-      </c>
-      <c r="G66" s="10">
-        <f t="shared" si="1"/>
-        <v>658</v>
-      </c>
-      <c r="H66" s="10"/>
-      <c r="I66" s="7" t="s">
+      <c r="B75" s="14"/>
+      <c r="C75" s="14"/>
+      <c r="D75" s="14"/>
+      <c r="E75" s="14"/>
+      <c r="F75" s="14"/>
+      <c r="G75" s="14"/>
+      <c r="H75" s="14"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B76" s="10" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A67" s="13" t="s">
+      <c r="C76" s="10"/>
+      <c r="D76" s="10">
+        <v>1</v>
+      </c>
+      <c r="E76" s="10"/>
+      <c r="F76" s="10">
+        <v>1499</v>
+      </c>
+      <c r="G76" s="10">
+        <f t="shared" si="3"/>
+        <v>1499</v>
+      </c>
+      <c r="H76" s="10"/>
+      <c r="I76" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B67" s="13"/>
-      <c r="C67" s="13"/>
-      <c r="D67" s="13"/>
-      <c r="E67" s="13"/>
-      <c r="F67" s="13"/>
-      <c r="G67" s="13"/>
-      <c r="H67" s="13"/>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B68" s="10" t="s">
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B77" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C68" s="10"/>
-      <c r="D68" s="10">
-        <v>1</v>
-      </c>
-      <c r="E68" s="10"/>
-      <c r="F68" s="10">
-        <v>1499</v>
-      </c>
-      <c r="G68" s="10">
-        <f t="shared" si="1"/>
-        <v>1499</v>
-      </c>
-      <c r="H68" s="10"/>
-      <c r="I68" s="4" t="s">
+      <c r="C77" s="10" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B69" s="10" t="s">
+      <c r="D77" s="10">
+        <v>1</v>
+      </c>
+      <c r="E77" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C69" s="10" t="s">
+      <c r="F77" s="10">
+        <v>358</v>
+      </c>
+      <c r="G77" s="10">
+        <f t="shared" si="3"/>
+        <v>358</v>
+      </c>
+      <c r="H77" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="D69" s="10">
-        <v>1</v>
-      </c>
-      <c r="E69" s="10" t="s">
+      <c r="I77" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F69" s="10">
-        <v>358</v>
-      </c>
-      <c r="G69" s="10">
-        <f t="shared" si="1"/>
-        <v>358</v>
-      </c>
-      <c r="H69" s="10" t="s">
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A78" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="I69" s="4" t="s">
+      <c r="B78" s="14"/>
+      <c r="C78" s="14"/>
+      <c r="D78" s="14"/>
+      <c r="E78" s="14"/>
+      <c r="F78" s="14"/>
+      <c r="G78" s="14"/>
+      <c r="H78" s="14"/>
+      <c r="I78" s="4"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B79" s="8" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A70" s="13" t="s">
+      <c r="C79" s="8"/>
+      <c r="D79" s="8">
+        <v>1</v>
+      </c>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8">
+        <v>1599</v>
+      </c>
+      <c r="G79" s="8">
+        <f>D79*F79</f>
+        <v>1599</v>
+      </c>
+      <c r="H79" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="B70" s="13"/>
-      <c r="C70" s="13"/>
-      <c r="D70" s="13"/>
-      <c r="E70" s="13"/>
-      <c r="F70" s="13"/>
-      <c r="G70" s="13"/>
-      <c r="H70" s="13"/>
-      <c r="I70" s="4"/>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B71" s="8" t="s">
+      <c r="I79" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="C71" s="8"/>
-      <c r="D71" s="8">
-        <v>1</v>
-      </c>
-      <c r="E71" s="8"/>
-      <c r="F71" s="8">
-        <v>1599</v>
-      </c>
-      <c r="G71" s="8">
-        <f>D71*F71</f>
-        <v>1599</v>
-      </c>
-      <c r="H71" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="I71" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B72" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D72" s="1">
-        <v>1</v>
-      </c>
-      <c r="F72" s="1">
-        <v>13</v>
-      </c>
-      <c r="G72" s="1">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="I72" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B73" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="C73" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="D73" s="1">
-        <v>1</v>
-      </c>
-      <c r="F73" s="1">
-        <v>6.9</v>
-      </c>
-      <c r="G73" s="1">
-        <f t="shared" si="1"/>
-        <v>6.9</v>
-      </c>
-      <c r="I73" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B74" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="C74" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="D74" s="1">
-        <v>1</v>
-      </c>
-      <c r="F74" s="1">
-        <v>14.3</v>
-      </c>
-      <c r="G74" s="1">
-        <f t="shared" si="1"/>
-        <v>14.3</v>
-      </c>
-      <c r="I74" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A75" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="B75" s="13"/>
-      <c r="C75" s="13"/>
-      <c r="D75" s="13"/>
-      <c r="E75" s="13"/>
-      <c r="F75" s="13"/>
-      <c r="G75" s="13"/>
-      <c r="H75" s="13"/>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B76" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C76" s="3"/>
-      <c r="D76" s="3">
-        <v>1</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F76" s="3">
-        <v>309</v>
-      </c>
-      <c r="G76" s="3">
-        <f t="shared" si="1"/>
-        <v>309</v>
-      </c>
-      <c r="H76" s="3"/>
-      <c r="I76" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A77" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="B77" s="13"/>
-      <c r="C77" s="13"/>
-      <c r="D77" s="13"/>
-      <c r="E77" s="13"/>
-      <c r="F77" s="13"/>
-      <c r="G77" s="13"/>
-      <c r="H77" s="13"/>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B78" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D78" s="1">
-        <v>1</v>
-      </c>
-      <c r="F78" s="1">
-        <v>28.8</v>
-      </c>
-      <c r="G78" s="1">
-        <f t="shared" si="1"/>
-        <v>28.8</v>
-      </c>
-      <c r="I78" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B79" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D79" s="1">
-        <v>2</v>
-      </c>
-      <c r="F79" s="1">
-        <v>22.5</v>
-      </c>
-      <c r="G79" s="1">
-        <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
-      <c r="I79" s="4" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B80" s="1" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="D80" s="1">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="F80" s="1">
+        <v>13</v>
       </c>
       <c r="G80" s="1">
-        <v>12</v>
+        <f t="shared" si="3"/>
+        <v>13</v>
       </c>
       <c r="I80" s="4" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B81" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>95</v>
+      <c r="B81" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>112</v>
       </c>
       <c r="D81" s="1">
         <v>1</v>
       </c>
       <c r="F81" s="1">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="G81" s="1">
-        <f t="shared" si="1"/>
-        <v>6.7</v>
+        <f t="shared" si="3"/>
+        <v>6.9</v>
       </c>
       <c r="I81" s="4" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B82" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>98</v>
+      <c r="B82" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C82" s="9" t="s">
+        <v>115</v>
       </c>
       <c r="D82" s="1">
         <v>1</v>
       </c>
       <c r="F82" s="1">
-        <v>129</v>
+        <v>14.3</v>
       </c>
       <c r="G82" s="1">
-        <f t="shared" si="1"/>
-        <v>129</v>
+        <f t="shared" si="3"/>
+        <v>14.3</v>
       </c>
       <c r="I82" s="4" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B83" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D83" s="1">
-        <v>2</v>
-      </c>
-      <c r="F83" s="1">
-        <v>5.39</v>
-      </c>
-      <c r="G83" s="1">
-        <f t="shared" si="1"/>
-        <v>10.78</v>
-      </c>
-      <c r="I83" s="4" t="s">
-        <v>101</v>
-      </c>
+      <c r="A83" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B83" s="14"/>
+      <c r="C83" s="14"/>
+      <c r="D83" s="14"/>
+      <c r="E83" s="14"/>
+      <c r="F83" s="14"/>
+      <c r="G83" s="14"/>
+      <c r="H83" s="14"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C84" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D84" s="1">
-        <v>2</v>
-      </c>
-      <c r="F84" s="1">
-        <v>6.12</v>
-      </c>
-      <c r="G84" s="1">
-        <f t="shared" si="1"/>
-        <v>12.24</v>
-      </c>
-      <c r="I84" s="4"/>
+      <c r="B84" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C84" s="3"/>
+      <c r="D84" s="3">
+        <v>1</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F84" s="3">
+        <v>309</v>
+      </c>
+      <c r="G84" s="3">
+        <f t="shared" si="3"/>
+        <v>309</v>
+      </c>
+      <c r="H84" s="3"/>
+      <c r="I84" s="4" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C85" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D85" s="1">
-        <v>2</v>
-      </c>
-      <c r="F85" s="1">
-        <v>7.5</v>
-      </c>
-      <c r="G85" s="1">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="I85" s="4"/>
+      <c r="A85" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B85" s="14"/>
+      <c r="C85" s="14"/>
+      <c r="D85" s="14"/>
+      <c r="E85" s="14"/>
+      <c r="F85" s="14"/>
+      <c r="G85" s="14"/>
+      <c r="H85" s="14"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B86" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D86" s="1">
-        <v>1</v>
-      </c>
-      <c r="F86" s="1">
-        <v>34.9</v>
-      </c>
-      <c r="G86" s="1">
-        <f t="shared" si="1"/>
-        <v>34.9</v>
-      </c>
+      <c r="A86" s="12"/>
+      <c r="B86" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="C86" s="19"/>
+      <c r="D86" s="19">
+        <v>1</v>
+      </c>
+      <c r="E86" s="19"/>
+      <c r="F86" s="19">
+        <v>23</v>
+      </c>
+      <c r="G86" s="19"/>
+      <c r="H86" s="19"/>
       <c r="I86" s="7" t="s">
-        <v>104</v>
+        <v>185</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B87" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D87" s="1">
+        <v>1</v>
+      </c>
+      <c r="F87" s="1">
+        <v>28.8</v>
+      </c>
+      <c r="G87" s="1">
+        <f t="shared" si="3"/>
+        <v>28.8</v>
+      </c>
+      <c r="I87" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B88" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D88" s="1">
+        <v>2</v>
+      </c>
+      <c r="F88" s="1">
+        <v>22.5</v>
+      </c>
+      <c r="G88" s="1">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
+      <c r="I88" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B89" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D89" s="1">
+        <v>2</v>
+      </c>
+      <c r="G89" s="1">
+        <v>12</v>
+      </c>
+      <c r="I89" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B90" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D90" s="1">
+        <v>1</v>
+      </c>
+      <c r="F90" s="1">
+        <v>6.7</v>
+      </c>
+      <c r="G90" s="1">
+        <f t="shared" si="3"/>
+        <v>6.7</v>
+      </c>
+      <c r="I90" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B91" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D91" s="1">
+        <v>1</v>
+      </c>
+      <c r="F91" s="1">
+        <v>129</v>
+      </c>
+      <c r="G91" s="1">
+        <f t="shared" si="3"/>
+        <v>129</v>
+      </c>
+      <c r="I91" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B92" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D92" s="1">
+        <v>2</v>
+      </c>
+      <c r="F92" s="1">
+        <v>5.39</v>
+      </c>
+      <c r="G92" s="1">
+        <f t="shared" si="3"/>
+        <v>10.78</v>
+      </c>
+      <c r="I92" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C93" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D93" s="1">
+        <v>2</v>
+      </c>
+      <c r="F93" s="1">
+        <v>6.12</v>
+      </c>
+      <c r="G93" s="1">
+        <f t="shared" si="3"/>
+        <v>12.24</v>
+      </c>
+      <c r="I93" s="4"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C94" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D94" s="1">
+        <v>2</v>
+      </c>
+      <c r="F94" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="G94" s="1">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="I94" s="4"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B95" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D95" s="1">
+        <v>1</v>
+      </c>
+      <c r="F95" s="1">
+        <v>34.9</v>
+      </c>
+      <c r="G95" s="1">
+        <f t="shared" si="3"/>
+        <v>34.9</v>
+      </c>
+      <c r="I95" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B96" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D96" s="1">
+        <v>1</v>
+      </c>
+      <c r="F96" s="1">
+        <v>12.8</v>
+      </c>
+      <c r="G96" s="1">
+        <f t="shared" si="3"/>
+        <v>12.8</v>
+      </c>
+      <c r="I96" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="C87" s="1" t="s">
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C97" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D87" s="1">
-        <v>1</v>
-      </c>
-      <c r="F87" s="1">
+      <c r="D97" s="1">
+        <v>1</v>
+      </c>
+      <c r="F97" s="1">
         <v>12.8</v>
       </c>
-      <c r="G87" s="1">
-        <f t="shared" si="1"/>
+      <c r="G97" s="1">
+        <f t="shared" si="3"/>
         <v>12.8</v>
       </c>
-      <c r="I87" s="7" t="s">
+      <c r="I97" s="7"/>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A98" s="14" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C88" s="1" t="s">
+      <c r="B98" s="14"/>
+      <c r="C98" s="14"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="14"/>
+      <c r="G98" s="14" t="e">
+        <f>SUM(G55:G97)-#REF!-G72-G74-G84-SUM(G87:G97)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H98" s="14"/>
+      <c r="I98" s="4"/>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A99" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="D88" s="1">
-        <v>1</v>
-      </c>
-      <c r="F88" s="1">
-        <v>12.8</v>
-      </c>
-      <c r="G88" s="1">
-        <f t="shared" si="1"/>
-        <v>12.8</v>
-      </c>
-      <c r="I88" s="7"/>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A89" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="B89" s="13"/>
-      <c r="C89" s="13"/>
-      <c r="D89" s="13"/>
-      <c r="E89" s="13"/>
-      <c r="G89" s="13" t="e">
-        <f>SUM(G47:G88)-#REF!-G64-G66-G76-SUM(G78:G88)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H89" s="13"/>
-      <c r="I89" s="4"/>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A90" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="B90" s="13"/>
-      <c r="C90" s="13"/>
-      <c r="D90" s="13"/>
-      <c r="E90" s="13"/>
-      <c r="G90" s="13">
-        <f>SUM(G22:G88)</f>
-        <v>7129.9199999999992</v>
-      </c>
-      <c r="H90" s="13"/>
+      <c r="B99" s="14"/>
+      <c r="C99" s="14"/>
+      <c r="D99" s="14"/>
+      <c r="E99" s="14"/>
+      <c r="G99" s="14">
+        <f>SUM(G22:G97)</f>
+        <v>7137.0099999999993</v>
+      </c>
+      <c r="H99" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="19">
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="A22:H22"/>
     <mergeCell ref="A45:H45"/>
-    <mergeCell ref="A47:H47"/>
-    <mergeCell ref="A60:H60"/>
+    <mergeCell ref="A55:H55"/>
+    <mergeCell ref="A68:H68"/>
     <mergeCell ref="C13:C20"/>
-    <mergeCell ref="A90:E90"/>
-    <mergeCell ref="G90:H90"/>
+    <mergeCell ref="A99:E99"/>
+    <mergeCell ref="G99:H99"/>
     <mergeCell ref="B23:B28"/>
     <mergeCell ref="I39:P41"/>
     <mergeCell ref="I29:P32"/>
     <mergeCell ref="I34:P35"/>
     <mergeCell ref="I36:P38"/>
-    <mergeCell ref="A67:H67"/>
-    <mergeCell ref="A70:H70"/>
     <mergeCell ref="A75:H75"/>
-    <mergeCell ref="A77:H77"/>
-    <mergeCell ref="A89:E89"/>
-    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="A78:H78"/>
+    <mergeCell ref="A83:H83"/>
+    <mergeCell ref="A85:H85"/>
+    <mergeCell ref="A98:E98"/>
+    <mergeCell ref="G98:H98"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I54" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="I52" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="I53" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="I57" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="I56" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="I64" r:id="rId6" location="detail" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="I65" r:id="rId7" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="I68" r:id="rId8" location="detail" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="I69" r:id="rId9" location="detail" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="I71" r:id="rId10" location="detail" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="I72" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="I76" r:id="rId12" location="detail" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="I79" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="I78" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="I81" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="I82" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="I83" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="I80" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="I62" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="I60" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="I61" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="I65" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="I64" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="I72" r:id="rId6" location="detail" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="I73" r:id="rId7" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="I76" r:id="rId8" location="detail" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="I77" r:id="rId9" location="detail" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="I79" r:id="rId10" location="detail" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="I80" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="I84" r:id="rId12" location="detail" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="I88" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="I87" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="I90" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="I91" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="I92" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="I89" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
     <hyperlink ref="I24" r:id="rId19" location="detail" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
     <hyperlink ref="I28" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
     <hyperlink ref="I23" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
@@ -2593,25 +2927,32 @@
     <hyperlink ref="I36" r:id="rId28" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
     <hyperlink ref="I39" r:id="rId29" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
     <hyperlink ref="I42" r:id="rId30" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="I58" r:id="rId31" location="detail" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="I59" r:id="rId32" location="detail" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="I66" r:id="rId33" location="detail" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="I86" r:id="rId34" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="I87" r:id="rId35" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="I50" r:id="rId36" tooltip="https://item.taobao.com/item.htm?spm=a1z0d.6639537/tb.1997196601.3.51d67484cqyITV&amp;id=551701542887" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="I51" r:id="rId37" location="detail" display="https://item.taobao.com/item.htm?spm=a21n57.1.0.0.1537523cJuCGqk&amp;id=609343192997&amp;ns=1&amp;abbucket=10 - detail" xr:uid="{178B1383-475C-4454-A036-FE95A87602F2}"/>
-    <hyperlink ref="I73" r:id="rId38" display="https://detail.tmall.com/item.htm?abbucket=10&amp;id=615012642620&amp;ns=1&amp;skuId=4501149342430&amp;spm=a21n57.1.0.0.5e29523cZa90lK" xr:uid="{435399B9-9DCF-4D76-B00B-40B1C9D2301A}"/>
-    <hyperlink ref="I74" r:id="rId39" display="https://detail.tmall.com/item.htm?abbucket=10&amp;id=41337916197&amp;ns=1&amp;spm=a21n57.1.0.0.1dfa523chIKpDQ&amp;skuId=4169944936324" xr:uid="{537B06F1-D497-49E8-85B6-883AD1701F9E}"/>
-    <hyperlink ref="I48" r:id="rId40" display="https://item.taobao.com/item.htm?spm=a21n57.1.item.3.27a3523cBA2Wfz&amp;priceTId=2147812c17183453649536236e7568&amp;id=676469984559&amp;ns=1&amp;abbucket=2&amp;sku_properties=31309:27629118148" xr:uid="{033D4F61-1EAB-4AFB-A317-AE131D596EDF}"/>
-    <hyperlink ref="I49" r:id="rId41" display="https://item.taobao.com/item.htm?spm=a1z10.3-c-s.w4002-14528659884.13.12a4829ceX3Pfx&amp;id=618271586432&amp;sku_properties=31309:3963438427" xr:uid="{6B2967FF-58CE-4B61-B6DA-D13C4C25AB54}"/>
+    <hyperlink ref="I66" r:id="rId31" location="detail" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="I67" r:id="rId32" location="detail" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="I74" r:id="rId33" location="detail" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="I95" r:id="rId34" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="I96" r:id="rId35" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="I58" r:id="rId36" tooltip="https://item.taobao.com/item.htm?spm=a1z0d.6639537/tb.1997196601.3.51d67484cqyITV&amp;id=551701542887" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="I59" r:id="rId37" location="detail" display="https://item.taobao.com/item.htm?spm=a21n57.1.0.0.1537523cJuCGqk&amp;id=609343192997&amp;ns=1&amp;abbucket=10 - detail" xr:uid="{178B1383-475C-4454-A036-FE95A87602F2}"/>
+    <hyperlink ref="I81" r:id="rId38" display="https://detail.tmall.com/item.htm?abbucket=10&amp;id=615012642620&amp;ns=1&amp;skuId=4501149342430&amp;spm=a21n57.1.0.0.5e29523cZa90lK" xr:uid="{435399B9-9DCF-4D76-B00B-40B1C9D2301A}"/>
+    <hyperlink ref="I82" r:id="rId39" display="https://detail.tmall.com/item.htm?abbucket=10&amp;id=41337916197&amp;ns=1&amp;spm=a21n57.1.0.0.1dfa523chIKpDQ&amp;skuId=4169944936324" xr:uid="{537B06F1-D497-49E8-85B6-883AD1701F9E}"/>
+    <hyperlink ref="I56" r:id="rId40" display="https://item.taobao.com/item.htm?spm=a21n57.1.item.3.27a3523cBA2Wfz&amp;priceTId=2147812c17183453649536236e7568&amp;id=676469984559&amp;ns=1&amp;abbucket=2&amp;sku_properties=31309:27629118148" xr:uid="{033D4F61-1EAB-4AFB-A317-AE131D596EDF}"/>
+    <hyperlink ref="I57" r:id="rId41" display="https://item.taobao.com/item.htm?spm=a1z10.3-c-s.w4002-14528659884.13.12a4829ceX3Pfx&amp;id=618271586432&amp;sku_properties=31309:3963438427" xr:uid="{6B2967FF-58CE-4B61-B6DA-D13C4C25AB54}"/>
     <hyperlink ref="I43" r:id="rId42" display="https://item.taobao.com/item.htm?spm=a1z10.3-c-s.w4002-14528659884.9.67dc829cotT4wp&amp;id=22337672173&amp;sku_properties=31309:105375" xr:uid="{74F93FC3-A867-474C-87E1-F4BC4813ECE4}"/>
     <hyperlink ref="I44" r:id="rId43" display="https://item.taobao.com/item.htm?spm=a1z10.3-c-s.w4002-14528659884.41.7a1a829cLeTHHf&amp;id=719115773830" xr:uid="{C291C137-C685-49BC-9630-7A5EBF044FDF}"/>
-    <hyperlink ref="I62" r:id="rId44" display="https://item.taobao.com/item.htm?spm=a230r.7195193.1997079397.10.c71e65d6GRAKsp&amp;id=692735724689&amp;abbucket=2" xr:uid="{1018C267-4E02-473B-8CC4-B4C23132D4E0}"/>
-    <hyperlink ref="I61" r:id="rId45" display="https://item.taobao.com/item.htm?spm=a230r.7195193.1997079397.7.c71e65d6GRAKsp&amp;id=720171355815&amp;abbucket=2" xr:uid="{9A346A8E-E1DF-4C07-A182-036AA435E9B3}"/>
-    <hyperlink ref="I63" r:id="rId46" display="https://item.taobao.com/item.htm?spm=a230r.7195193.1997079397.8.c71e65d6GRAKsp&amp;id=694055578683&amp;abbucket=2" xr:uid="{F46C6CF6-C478-40E9-B2DD-0A972C664AA3}"/>
+    <hyperlink ref="I70" r:id="rId44" display="https://item.taobao.com/item.htm?spm=a230r.7195193.1997079397.10.c71e65d6GRAKsp&amp;id=692735724689&amp;abbucket=2" xr:uid="{1018C267-4E02-473B-8CC4-B4C23132D4E0}"/>
+    <hyperlink ref="I69" r:id="rId45" display="https://item.taobao.com/item.htm?spm=a230r.7195193.1997079397.7.c71e65d6GRAKsp&amp;id=720171355815&amp;abbucket=2" xr:uid="{9A346A8E-E1DF-4C07-A182-036AA435E9B3}"/>
+    <hyperlink ref="I71" r:id="rId46" display="https://item.taobao.com/item.htm?spm=a230r.7195193.1997079397.8.c71e65d6GRAKsp&amp;id=694055578683&amp;abbucket=2" xr:uid="{F46C6CF6-C478-40E9-B2DD-0A972C664AA3}"/>
+    <hyperlink ref="I46" r:id="rId47" display="https://item.taobao.com/item.htm?spm=a21n57.1.item.4.4c44523chJe8tB&amp;priceTId=213e36c017188698792078917e25b2&amp;utparam=%7B%22aplus_abtest%22:%229fb89e70504917389827bf91c4c5c4e6%22%7D&amp;id=700660552967&amp;ns=1&amp;abbucket=2" xr:uid="{22D17EB9-4A53-454C-9584-528A3DD32102}"/>
+    <hyperlink ref="I47" r:id="rId48" display="https://item.taobao.com/item.htm?spm=a21n57.1.item.47.4c44523chJe8tB&amp;priceTId=213e36c017188701907781480e25b2&amp;utparam=%7B%22aplus_abtest%22:%22b8e0d7b1f1ebc88d7a49535c6e8e75d3%22%7D&amp;id=688261600369&amp;ns=1&amp;abbucket=2&amp;skuId=5080471143948" xr:uid="{4FACA32A-4D5F-4E76-80F4-04D2A2B8C50B}"/>
+    <hyperlink ref="I48" r:id="rId49" display="https://item.taobao.com/item.htm?spm=a1z10.5-c.w4002-25368749467.11.1d9548aapSLi4v&amp;id=689188739754&amp;skuId=5076400810713" xr:uid="{0D4F3F7D-3E8F-42AE-B075-11EB67C0BED5}"/>
+    <hyperlink ref="I49" r:id="rId50" xr:uid="{927C3697-D603-4BC7-9E09-228FB35A6838}"/>
+    <hyperlink ref="I50" r:id="rId51" display="https://item.taobao.com/item.htm?spm=a21n57.1.item.63.4c44523chJe8tB&amp;priceTId=213e36c017188704862617605e25b2&amp;utparam=%7B%22aplus_abtest%22:%2235dd71e20d3a8d89daafa152217bed81%22%7D&amp;id=779148614810&amp;ns=1&amp;abbucket=2&amp;sku_properties=148242406:37687008" xr:uid="{88CF3889-DED8-4817-8D6A-0061BC9EDE36}"/>
+    <hyperlink ref="I52" r:id="rId52" display="https://item.taobao.com/item.htm?spm=pc_detail.29232929/evo401271b517998.guessitem.d1.7d607dd6nHQuz4&amp;id=753243709584" xr:uid="{5AA5C341-0569-4554-BA55-54493B8E8105}"/>
+    <hyperlink ref="I86" r:id="rId53" display="https://item.taobao.com/item.htm?spm=a21n57.1.item.164.4c44523chJe8tB&amp;priceTId=2147bfba17188717355864496e3d23&amp;utparam=%7B%22aplus_abtest%22:%22b31ca5c39dc780dbf49c2a2df6424885%22%7D&amp;id=581323214322&amp;ns=1&amp;abbucket=2&amp;sku_properties=31309:2354079721" xr:uid="{F4F9E4BC-8585-44DD-9081-DE9814921B52}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId47"/>
-  <drawing r:id="rId48"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId54"/>
+  <drawing r:id="rId55"/>
 </worksheet>
 </file>
--- a/Cherima5_材料清单-2024.6.14.xlsx
+++ b/Cherima5_材料清单-2024.6.14.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\__Workspace\Hardware\【分件】Chimera_5_XMU_修改\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20B509D0-44D1-402D-9571-2AF11C89ABEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87A4074F-EB16-4DAE-9CE5-E5336F3E2A6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -669,9 +669,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>定制网线RJ45转端子4芯8芯XH2.54双绞线PH2.0转8P监控数据线1.25-淘宝网 (taobao.com)</t>
-  </si>
-  <si>
     <t>线定制</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -740,6 +737,9 @@
   </si>
   <si>
     <t>天线固定胶水适用于睿思凯FRSKY R9 mini X4RSB XM+ R-XSR接收机-淘宝网 (taobao.com)</t>
+  </si>
+  <si>
+    <t>定制端子转水晶头8P8C网口RG45连接线1.25端子4芯2.54端子ph2.0-淘宝网 (taobao.com)</t>
   </si>
 </sst>
 </file>
@@ -885,6 +885,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -898,9 +901,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1274,8 +1274,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:P99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B86" sqref="B86:H86"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I52" sqref="I52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
@@ -1318,16 +1318,16 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="12"/>
@@ -1460,7 +1460,7 @@
       <c r="B13" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="15" t="s">
         <v>137</v>
       </c>
       <c r="D13" s="12"/>
@@ -1474,7 +1474,7 @@
       <c r="B14" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="C14" s="14"/>
+      <c r="C14" s="15"/>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
@@ -1486,7 +1486,7 @@
       <c r="B15" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="C15" s="14"/>
+      <c r="C15" s="15"/>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
@@ -1498,7 +1498,7 @@
       <c r="B16" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="C16" s="14"/>
+      <c r="C16" s="15"/>
       <c r="D16" s="12"/>
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
@@ -1510,7 +1510,7 @@
       <c r="B17" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="C17" s="14"/>
+      <c r="C17" s="15"/>
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
@@ -1522,7 +1522,7 @@
       <c r="B18" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="C18" s="14"/>
+      <c r="C18" s="15"/>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
@@ -1534,7 +1534,7 @@
       <c r="B19" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="C19" s="14"/>
+      <c r="C19" s="15"/>
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
@@ -1546,7 +1546,7 @@
       <c r="B20" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="C20" s="14"/>
+      <c r="C20" s="15"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
@@ -1568,20 +1568,20 @@
       <c r="H21" s="12"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
       <c r="I22" s="4"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="16" t="s">
         <v>10</v>
       </c>
       <c r="I23" s="5" t="s">
@@ -1589,31 +1589,31 @@
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B24" s="15"/>
+      <c r="B24" s="16"/>
       <c r="I24" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B25" s="15"/>
+      <c r="B25" s="16"/>
       <c r="I25" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B26" s="15"/>
+      <c r="B26" s="16"/>
       <c r="I26" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B27" s="15"/>
+      <c r="B27" s="16"/>
       <c r="I27" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B28" s="15"/>
+      <c r="B28" s="16"/>
       <c r="I28" s="5" t="s">
         <v>14</v>
       </c>
@@ -1622,46 +1622,46 @@
       <c r="B29" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I29" s="16" t="s">
+      <c r="I29" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
-      <c r="L29" s="16"/>
-      <c r="M29" s="16"/>
-      <c r="N29" s="16"/>
-      <c r="O29" s="16"/>
-      <c r="P29" s="16"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="16"/>
-      <c r="L30" s="16"/>
-      <c r="M30" s="16"/>
-      <c r="N30" s="16"/>
-      <c r="O30" s="16"/>
-      <c r="P30" s="16"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="17"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="16"/>
-      <c r="M31" s="16"/>
-      <c r="N31" s="16"/>
-      <c r="O31" s="16"/>
-      <c r="P31" s="16"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="17"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="16"/>
-      <c r="L32" s="16"/>
-      <c r="M32" s="16"/>
-      <c r="N32" s="16"/>
-      <c r="O32" s="16"/>
-      <c r="P32" s="16"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="I33" s="5" t="s">
@@ -1676,97 +1676,97 @@
       <c r="P33" s="4"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="I34" s="16" t="s">
+      <c r="I34" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="J34" s="16"/>
-      <c r="K34" s="16"/>
-      <c r="L34" s="16"/>
-      <c r="M34" s="16"/>
-      <c r="N34" s="16"/>
-      <c r="O34" s="16"/>
-      <c r="P34" s="16"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="17"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="I35" s="16"/>
-      <c r="J35" s="16"/>
-      <c r="K35" s="16"/>
-      <c r="L35" s="16"/>
-      <c r="M35" s="16"/>
-      <c r="N35" s="16"/>
-      <c r="O35" s="16"/>
-      <c r="P35" s="16"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="17"/>
+      <c r="O35" s="17"/>
+      <c r="P35" s="17"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I36" s="17" t="s">
+      <c r="I36" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="J36" s="18"/>
-      <c r="K36" s="18"/>
-      <c r="L36" s="18"/>
-      <c r="M36" s="18"/>
-      <c r="N36" s="18"/>
-      <c r="O36" s="18"/>
-      <c r="P36" s="18"/>
+      <c r="J36" s="19"/>
+      <c r="K36" s="19"/>
+      <c r="L36" s="19"/>
+      <c r="M36" s="19"/>
+      <c r="N36" s="19"/>
+      <c r="O36" s="19"/>
+      <c r="P36" s="19"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="I37" s="18"/>
-      <c r="J37" s="18"/>
-      <c r="K37" s="18"/>
-      <c r="L37" s="18"/>
-      <c r="M37" s="18"/>
-      <c r="N37" s="18"/>
-      <c r="O37" s="18"/>
-      <c r="P37" s="18"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="19"/>
+      <c r="K37" s="19"/>
+      <c r="L37" s="19"/>
+      <c r="M37" s="19"/>
+      <c r="N37" s="19"/>
+      <c r="O37" s="19"/>
+      <c r="P37" s="19"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="I38" s="18"/>
-      <c r="J38" s="18"/>
-      <c r="K38" s="18"/>
-      <c r="L38" s="18"/>
-      <c r="M38" s="18"/>
-      <c r="N38" s="18"/>
-      <c r="O38" s="18"/>
-      <c r="P38" s="18"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="19"/>
+      <c r="K38" s="19"/>
+      <c r="L38" s="19"/>
+      <c r="M38" s="19"/>
+      <c r="N38" s="19"/>
+      <c r="O38" s="19"/>
+      <c r="P38" s="19"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I39" s="16" t="s">
+      <c r="I39" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="J39" s="16"/>
-      <c r="K39" s="16"/>
-      <c r="L39" s="16"/>
-      <c r="M39" s="16"/>
-      <c r="N39" s="16"/>
-      <c r="O39" s="16"/>
-      <c r="P39" s="16"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="17"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="I40" s="16"/>
-      <c r="J40" s="16"/>
-      <c r="K40" s="16"/>
-      <c r="L40" s="16"/>
-      <c r="M40" s="16"/>
-      <c r="N40" s="16"/>
-      <c r="O40" s="16"/>
-      <c r="P40" s="16"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="17"/>
+      <c r="P40" s="17"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="H41" s="2"/>
-      <c r="I41" s="16"/>
-      <c r="J41" s="16"/>
-      <c r="K41" s="16"/>
-      <c r="L41" s="16"/>
-      <c r="M41" s="16"/>
-      <c r="N41" s="16"/>
-      <c r="O41" s="16"/>
-      <c r="P41" s="16"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="17"/>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="17"/>
+      <c r="O41" s="17"/>
+      <c r="P41" s="17"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="I42" s="6" t="s">
@@ -1796,16 +1796,16 @@
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A45" s="14" t="s">
+      <c r="A45" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="14"/>
-      <c r="H45" s="14"/>
+      <c r="B45" s="15"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="15"/>
       <c r="I45" s="4"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
@@ -1917,123 +1917,123 @@
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="12"/>
       <c r="B50" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="D50" s="12">
+        <v>1</v>
+      </c>
+      <c r="E50" s="12" t="s">
         <v>171</v>
-      </c>
-      <c r="C50" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="D50" s="12">
-        <v>1</v>
-      </c>
-      <c r="E50" s="12" t="s">
-        <v>172</v>
       </c>
       <c r="F50" s="12"/>
       <c r="G50" s="12"/>
       <c r="H50" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I50" s="7" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="12"/>
       <c r="B51" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="D51" s="12">
+        <v>1</v>
+      </c>
+      <c r="E51" s="12" t="s">
         <v>171</v>
-      </c>
-      <c r="C51" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="D51" s="12">
-        <v>1</v>
-      </c>
-      <c r="E51" s="12" t="s">
-        <v>172</v>
       </c>
       <c r="F51" s="12"/>
       <c r="G51" s="12"/>
       <c r="H51" s="13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I51" s="7"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="12"/>
       <c r="B52" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D52" s="12">
+        <v>1</v>
+      </c>
+      <c r="E52" s="12" t="s">
         <v>171</v>
-      </c>
-      <c r="C52" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="D52" s="12">
-        <v>1</v>
-      </c>
-      <c r="E52" s="12" t="s">
-        <v>172</v>
       </c>
       <c r="F52" s="12"/>
       <c r="G52" s="12"/>
       <c r="H52" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I52" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="12"/>
       <c r="B53" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="D53" s="12">
+        <v>1</v>
+      </c>
+      <c r="E53" s="12" t="s">
         <v>171</v>
-      </c>
-      <c r="C53" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="D53" s="12">
-        <v>1</v>
-      </c>
-      <c r="E53" s="12" t="s">
-        <v>172</v>
       </c>
       <c r="F53" s="12"/>
       <c r="G53" s="12"/>
       <c r="H53" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I53" s="7"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="12"/>
       <c r="B54" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="D54" s="12">
+        <v>1</v>
+      </c>
+      <c r="E54" s="12" t="s">
         <v>171</v>
-      </c>
-      <c r="C54" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="D54" s="12">
-        <v>1</v>
-      </c>
-      <c r="E54" s="12" t="s">
-        <v>172</v>
       </c>
       <c r="F54" s="12"/>
       <c r="G54" s="12"/>
       <c r="H54" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I54" s="7"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" s="14" t="s">
+      <c r="A55" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c r="G55" s="14"/>
-      <c r="H55" s="14"/>
+      <c r="B55" s="15"/>
+      <c r="C55" s="15"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="15"/>
+      <c r="H55" s="15"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B56" s="1" t="s">
@@ -2261,16 +2261,16 @@
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A68" s="14" t="s">
+      <c r="A68" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="B68" s="14"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14"/>
-      <c r="G68" s="14"/>
-      <c r="H68" s="14"/>
+      <c r="B68" s="15"/>
+      <c r="C68" s="15"/>
+      <c r="D68" s="15"/>
+      <c r="E68" s="15"/>
+      <c r="F68" s="15"/>
+      <c r="G68" s="15"/>
+      <c r="H68" s="15"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B69" s="1" t="s">
@@ -2408,16 +2408,16 @@
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A75" s="14" t="s">
+      <c r="A75" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="B75" s="14"/>
-      <c r="C75" s="14"/>
-      <c r="D75" s="14"/>
-      <c r="E75" s="14"/>
-      <c r="F75" s="14"/>
-      <c r="G75" s="14"/>
-      <c r="H75" s="14"/>
+      <c r="B75" s="15"/>
+      <c r="C75" s="15"/>
+      <c r="D75" s="15"/>
+      <c r="E75" s="15"/>
+      <c r="F75" s="15"/>
+      <c r="G75" s="15"/>
+      <c r="H75" s="15"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B76" s="10" t="s">
@@ -2468,16 +2468,16 @@
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A78" s="14" t="s">
+      <c r="A78" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="B78" s="14"/>
-      <c r="C78" s="14"/>
-      <c r="D78" s="14"/>
-      <c r="E78" s="14"/>
-      <c r="F78" s="14"/>
-      <c r="G78" s="14"/>
-      <c r="H78" s="14"/>
+      <c r="B78" s="15"/>
+      <c r="C78" s="15"/>
+      <c r="D78" s="15"/>
+      <c r="E78" s="15"/>
+      <c r="F78" s="15"/>
+      <c r="G78" s="15"/>
+      <c r="H78" s="15"/>
       <c r="I78" s="4"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
@@ -2567,16 +2567,16 @@
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A83" s="14" t="s">
+      <c r="A83" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="B83" s="14"/>
-      <c r="C83" s="14"/>
-      <c r="D83" s="14"/>
-      <c r="E83" s="14"/>
-      <c r="F83" s="14"/>
-      <c r="G83" s="14"/>
-      <c r="H83" s="14"/>
+      <c r="B83" s="15"/>
+      <c r="C83" s="15"/>
+      <c r="D83" s="15"/>
+      <c r="E83" s="15"/>
+      <c r="F83" s="15"/>
+      <c r="G83" s="15"/>
+      <c r="H83" s="15"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B84" s="3" t="s">
@@ -2602,34 +2602,34 @@
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A85" s="14" t="s">
+      <c r="A85" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="B85" s="14"/>
-      <c r="C85" s="14"/>
-      <c r="D85" s="14"/>
-      <c r="E85" s="14"/>
-      <c r="F85" s="14"/>
-      <c r="G85" s="14"/>
-      <c r="H85" s="14"/>
+      <c r="B85" s="15"/>
+      <c r="C85" s="15"/>
+      <c r="D85" s="15"/>
+      <c r="E85" s="15"/>
+      <c r="F85" s="15"/>
+      <c r="G85" s="15"/>
+      <c r="H85" s="15"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" s="12"/>
-      <c r="B86" s="19" t="s">
+      <c r="B86" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="C86" s="14"/>
+      <c r="D86" s="14">
+        <v>1</v>
+      </c>
+      <c r="E86" s="14"/>
+      <c r="F86" s="14">
+        <v>23</v>
+      </c>
+      <c r="G86" s="14"/>
+      <c r="H86" s="14"/>
+      <c r="I86" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="C86" s="19"/>
-      <c r="D86" s="19">
-        <v>1</v>
-      </c>
-      <c r="E86" s="19"/>
-      <c r="F86" s="19">
-        <v>23</v>
-      </c>
-      <c r="G86" s="19"/>
-      <c r="H86" s="19"/>
-      <c r="I86" s="7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
@@ -2845,42 +2845,36 @@
       <c r="I97" s="7"/>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A98" s="14" t="s">
+      <c r="A98" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="B98" s="14"/>
-      <c r="C98" s="14"/>
-      <c r="D98" s="14"/>
-      <c r="E98" s="14"/>
-      <c r="G98" s="14" t="e">
+      <c r="B98" s="15"/>
+      <c r="C98" s="15"/>
+      <c r="D98" s="15"/>
+      <c r="E98" s="15"/>
+      <c r="G98" s="15" t="e">
         <f>SUM(G55:G97)-#REF!-G72-G74-G84-SUM(G87:G97)</f>
         <v>#REF!</v>
       </c>
-      <c r="H98" s="14"/>
+      <c r="H98" s="15"/>
       <c r="I98" s="4"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A99" s="14" t="s">
+      <c r="A99" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="B99" s="14"/>
-      <c r="C99" s="14"/>
-      <c r="D99" s="14"/>
-      <c r="E99" s="14"/>
-      <c r="G99" s="14">
+      <c r="B99" s="15"/>
+      <c r="C99" s="15"/>
+      <c r="D99" s="15"/>
+      <c r="E99" s="15"/>
+      <c r="G99" s="15">
         <f>SUM(G22:G97)</f>
         <v>7137.0099999999993</v>
       </c>
-      <c r="H99" s="14"/>
+      <c r="H99" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A22:H22"/>
-    <mergeCell ref="A45:H45"/>
-    <mergeCell ref="A55:H55"/>
-    <mergeCell ref="A68:H68"/>
-    <mergeCell ref="C13:C20"/>
     <mergeCell ref="A99:E99"/>
     <mergeCell ref="G99:H99"/>
     <mergeCell ref="B23:B28"/>
@@ -2894,6 +2888,12 @@
     <mergeCell ref="A85:H85"/>
     <mergeCell ref="A98:E98"/>
     <mergeCell ref="G98:H98"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A22:H22"/>
+    <mergeCell ref="A45:H45"/>
+    <mergeCell ref="A55:H55"/>
+    <mergeCell ref="A68:H68"/>
+    <mergeCell ref="C13:C20"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
@@ -2947,9 +2947,9 @@
     <hyperlink ref="I47" r:id="rId48" display="https://item.taobao.com/item.htm?spm=a21n57.1.item.47.4c44523chJe8tB&amp;priceTId=213e36c017188701907781480e25b2&amp;utparam=%7B%22aplus_abtest%22:%22b8e0d7b1f1ebc88d7a49535c6e8e75d3%22%7D&amp;id=688261600369&amp;ns=1&amp;abbucket=2&amp;skuId=5080471143948" xr:uid="{4FACA32A-4D5F-4E76-80F4-04D2A2B8C50B}"/>
     <hyperlink ref="I48" r:id="rId49" display="https://item.taobao.com/item.htm?spm=a1z10.5-c.w4002-25368749467.11.1d9548aapSLi4v&amp;id=689188739754&amp;skuId=5076400810713" xr:uid="{0D4F3F7D-3E8F-42AE-B075-11EB67C0BED5}"/>
     <hyperlink ref="I49" r:id="rId50" xr:uid="{927C3697-D603-4BC7-9E09-228FB35A6838}"/>
-    <hyperlink ref="I50" r:id="rId51" display="https://item.taobao.com/item.htm?spm=a21n57.1.item.63.4c44523chJe8tB&amp;priceTId=213e36c017188704862617605e25b2&amp;utparam=%7B%22aplus_abtest%22:%2235dd71e20d3a8d89daafa152217bed81%22%7D&amp;id=779148614810&amp;ns=1&amp;abbucket=2&amp;sku_properties=148242406:37687008" xr:uid="{88CF3889-DED8-4817-8D6A-0061BC9EDE36}"/>
-    <hyperlink ref="I52" r:id="rId52" display="https://item.taobao.com/item.htm?spm=pc_detail.29232929/evo401271b517998.guessitem.d1.7d607dd6nHQuz4&amp;id=753243709584" xr:uid="{5AA5C341-0569-4554-BA55-54493B8E8105}"/>
-    <hyperlink ref="I86" r:id="rId53" display="https://item.taobao.com/item.htm?spm=a21n57.1.item.164.4c44523chJe8tB&amp;priceTId=2147bfba17188717355864496e3d23&amp;utparam=%7B%22aplus_abtest%22:%22b31ca5c39dc780dbf49c2a2df6424885%22%7D&amp;id=581323214322&amp;ns=1&amp;abbucket=2&amp;sku_properties=31309:2354079721" xr:uid="{F4F9E4BC-8585-44DD-9081-DE9814921B52}"/>
+    <hyperlink ref="I52" r:id="rId51" display="https://item.taobao.com/item.htm?spm=pc_detail.29232929/evo401271b517998.guessitem.d1.7d607dd6nHQuz4&amp;id=753243709584" xr:uid="{5AA5C341-0569-4554-BA55-54493B8E8105}"/>
+    <hyperlink ref="I86" r:id="rId52" display="https://item.taobao.com/item.htm?spm=a21n57.1.item.164.4c44523chJe8tB&amp;priceTId=2147bfba17188717355864496e3d23&amp;utparam=%7B%22aplus_abtest%22:%22b31ca5c39dc780dbf49c2a2df6424885%22%7D&amp;id=581323214322&amp;ns=1&amp;abbucket=2&amp;sku_properties=31309:2354079721" xr:uid="{F4F9E4BC-8585-44DD-9081-DE9814921B52}"/>
+    <hyperlink ref="I50" r:id="rId53" display="https://item.taobao.com/item.htm?id=719725474621" xr:uid="{370BDED8-CF89-480B-98A3-54CCBF6B8D9B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId54"/>

--- a/Cherima5_材料清单-2024.6.14.xlsx
+++ b/Cherima5_材料清单-2024.6.14.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\__Workspace\Hardware\【分件】Chimera_5_XMU_修改\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87A4074F-EB16-4DAE-9CE5-E5336F3E2A6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66713802-9633-4CE9-AD5D-BFE1664F9330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="195">
   <si>
     <t>序号</t>
   </si>
@@ -740,6 +740,41 @@
   </si>
   <si>
     <t>定制端子转水晶头8P8C网口RG45连接线1.25端子4芯2.54端子ph2.0-淘宝网 (taobao.com)</t>
+  </si>
+  <si>
+    <t>SH1.0mm-4pin转2.54mm 杜邦 20cm</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>根</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>分电板-飞控</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>SH1.0mm转2.54mm杜邦端子线 2 3 4 5P转杜邦头信号电子延长转换线-tmall.com天猫</t>
+  </si>
+  <si>
+    <t>根</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞控-接收机，可以长一些</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞控-GPS，可以长一些</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>SH1.0mm-4pin转SH1.0mm-3pin 4pin-1号口不接 30cm</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>SH1.0mm-6pin转SH1.0mm-6pin 反向 30cm</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -971,14 +1006,14 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>489857</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>234499</xdr:colOff>
-      <xdr:row>99</xdr:row>
-      <xdr:rowOff>76631</xdr:rowOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>76632</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1272,10 +1307,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:P99"/>
+  <dimension ref="A2:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I52" sqref="I52"/>
+      <selection activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
@@ -2008,468 +2043,473 @@
         <v>170</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="D54" s="12">
         <v>1</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="F54" s="12"/>
       <c r="G54" s="12"/>
       <c r="H54" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="I54" s="7" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55" s="12"/>
+      <c r="B55" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="D55" s="12">
+        <v>1</v>
+      </c>
+      <c r="E55" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="F55" s="12"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="I54" s="7"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" s="15" t="s">
+      <c r="I55" s="7"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56" s="12"/>
+      <c r="B56" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="D56" s="12">
+        <v>1</v>
+      </c>
+      <c r="E56" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="F56" s="12"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="I56" s="7"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57" s="12"/>
+      <c r="B57" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="D57" s="12">
+        <v>1</v>
+      </c>
+      <c r="E57" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="F57" s="12"/>
+      <c r="G57" s="12"/>
+      <c r="H57" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="I57" s="7"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B55" s="15"/>
-      <c r="C55" s="15"/>
-      <c r="D55" s="15"/>
-      <c r="E55" s="15"/>
-      <c r="F55" s="15"/>
-      <c r="G55" s="15"/>
-      <c r="H55" s="15"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B56" s="1" t="s">
+      <c r="B58" s="15"/>
+      <c r="C58" s="15"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="15"/>
+      <c r="H58" s="15"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B59" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C56" s="9" t="s">
+      <c r="C59" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="D56" s="1">
+      <c r="D59" s="1">
         <v>4</v>
       </c>
-      <c r="G56" s="1">
+      <c r="G59" s="1">
         <v>622</v>
       </c>
-      <c r="I56" s="7" t="s">
+      <c r="I59" s="7" t="s">
         <v>142</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B57" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D57" s="1">
-        <v>4</v>
-      </c>
-      <c r="G57" s="1">
-        <v>14.9</v>
-      </c>
-      <c r="I57" s="7" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B58" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C58" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="D58" s="1">
-        <v>1</v>
-      </c>
-      <c r="G58" s="1">
-        <v>369</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I58" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B59" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C59" s="10"/>
-      <c r="D59" s="10">
-        <v>1</v>
-      </c>
-      <c r="E59" s="10"/>
-      <c r="F59" s="10">
-        <v>5</v>
-      </c>
-      <c r="G59" s="10">
-        <f>D59*F59</f>
-        <v>5</v>
-      </c>
-      <c r="H59" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="I59" s="4" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B60" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D60" s="1">
-        <v>1</v>
-      </c>
-      <c r="F60" s="1">
-        <v>2.2000000000000002</v>
+        <v>4</v>
       </c>
       <c r="G60" s="1">
-        <f>D60*F60</f>
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="I60" s="4" t="s">
-        <v>36</v>
+        <v>14.9</v>
+      </c>
+      <c r="I60" s="7" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B61" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>144</v>
       </c>
       <c r="D61" s="1">
         <v>1</v>
       </c>
-      <c r="F61" s="1">
-        <v>3.8</v>
-      </c>
       <c r="G61" s="1">
-        <f>D61*F61</f>
-        <v>3.8</v>
+        <v>369</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B62" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D62" s="1">
-        <v>1</v>
-      </c>
-      <c r="F62" s="1">
-        <v>1.4</v>
-      </c>
-      <c r="G62" s="1">
+      <c r="B62" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C62" s="10"/>
+      <c r="D62" s="10">
+        <v>1</v>
+      </c>
+      <c r="E62" s="10"/>
+      <c r="F62" s="10">
+        <v>5</v>
+      </c>
+      <c r="G62" s="10">
         <f>D62*F62</f>
-        <v>1.4</v>
+        <v>5</v>
+      </c>
+      <c r="H62" s="11" t="s">
+        <v>109</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>43</v>
+        <v>110</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B63" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D63" s="1">
+        <v>1</v>
+      </c>
+      <c r="F63" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G63" s="1">
+        <f>D63*F63</f>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I63" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B64" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D64" s="1">
+        <v>1</v>
+      </c>
+      <c r="F64" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="G64" s="1">
+        <f>D64*F64</f>
+        <v>3.8</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I64" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B65" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C65" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D65" s="1">
+        <v>1</v>
+      </c>
+      <c r="F65" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="G65" s="1">
+        <f>D65*F65</f>
+        <v>1.4</v>
+      </c>
+      <c r="I65" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B66" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D63" s="1">
-        <v>1</v>
-      </c>
-      <c r="F63" s="1">
+      <c r="D66" s="1">
+        <v>1</v>
+      </c>
+      <c r="F66" s="1">
         <v>1.4</v>
       </c>
-      <c r="G63" s="1">
-        <f t="shared" ref="G63:G65" si="2">D63*F63</f>
+      <c r="G66" s="1">
+        <f t="shared" ref="G66:G68" si="2">D66*F66</f>
         <v>1.4</v>
       </c>
-      <c r="I63" s="4"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B64" s="10" t="s">
+      <c r="I66" s="4"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B67" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C64" s="10" t="s">
+      <c r="C67" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D64" s="10">
+      <c r="D67" s="10">
         <v>2</v>
       </c>
-      <c r="E64" s="10"/>
-      <c r="F64" s="10">
-        <v>1</v>
-      </c>
-      <c r="G64" s="10">
+      <c r="E67" s="10"/>
+      <c r="F67" s="10">
+        <v>1</v>
+      </c>
+      <c r="G67" s="10">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="H64" s="10" t="s">
+      <c r="H67" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="I64" s="4" t="s">
+      <c r="I67" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B65" s="10" t="s">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B68" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C65" s="10" t="s">
+      <c r="C68" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D65" s="10">
+      <c r="D68" s="10">
         <v>2</v>
       </c>
-      <c r="E65" s="10"/>
-      <c r="F65" s="10">
-        <v>1</v>
-      </c>
-      <c r="G65" s="10">
+      <c r="E68" s="10"/>
+      <c r="F68" s="10">
+        <v>1</v>
+      </c>
+      <c r="G68" s="10">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="H65" s="10"/>
-      <c r="I65" s="4" t="s">
+      <c r="H68" s="10"/>
+      <c r="I68" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B66" s="10" t="s">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B69" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C66" s="10"/>
-      <c r="D66" s="10"/>
-      <c r="E66" s="10"/>
-      <c r="F66" s="10"/>
-      <c r="G66" s="10"/>
-      <c r="H66" s="10" t="s">
+      <c r="C69" s="10"/>
+      <c r="D69" s="10"/>
+      <c r="E69" s="10"/>
+      <c r="F69" s="10"/>
+      <c r="G69" s="10"/>
+      <c r="H69" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="I66" s="7" t="s">
+      <c r="I69" s="7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I67" s="7" t="s">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I70" s="7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A68" s="15" t="s">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A71" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="B68" s="15"/>
-      <c r="C68" s="15"/>
-      <c r="D68" s="15"/>
-      <c r="E68" s="15"/>
-      <c r="F68" s="15"/>
-      <c r="G68" s="15"/>
-      <c r="H68" s="15"/>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B69" s="1" t="s">
+      <c r="B71" s="15"/>
+      <c r="C71" s="15"/>
+      <c r="D71" s="15"/>
+      <c r="E71" s="15"/>
+      <c r="F71" s="15"/>
+      <c r="G71" s="15"/>
+      <c r="H71" s="15"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B72" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C69" s="9" t="s">
+      <c r="C72" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="D69" s="1">
-        <v>1</v>
-      </c>
-      <c r="E69" s="9" t="s">
+      <c r="D72" s="1">
+        <v>1</v>
+      </c>
+      <c r="E72" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="F69" s="1">
+      <c r="F72" s="1">
         <v>488</v>
       </c>
-      <c r="G69" s="1">
-        <f t="shared" ref="G69:G97" si="3">D69*F69</f>
+      <c r="G72" s="1">
+        <f t="shared" ref="G72:G100" si="3">D72*F72</f>
         <v>488</v>
       </c>
-      <c r="I69" s="7" t="s">
+      <c r="I72" s="7" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B70" s="9" t="s">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B73" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="C70" s="9" t="s">
+      <c r="C73" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="D70" s="1">
-        <v>1</v>
-      </c>
-      <c r="F70" s="1">
+      <c r="D73" s="1">
+        <v>1</v>
+      </c>
+      <c r="F73" s="1">
         <v>138</v>
       </c>
-      <c r="G70" s="1">
+      <c r="G73" s="1">
         <f t="shared" si="3"/>
         <v>138</v>
       </c>
-      <c r="I70" s="7" t="s">
+      <c r="I73" s="7" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B71" s="9" t="s">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B74" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="D71" s="1">
-        <v>1</v>
-      </c>
-      <c r="F71" s="1">
+      <c r="D74" s="1">
+        <v>1</v>
+      </c>
+      <c r="F74" s="1">
         <v>88</v>
       </c>
-      <c r="G71" s="1">
+      <c r="G74" s="1">
         <f t="shared" si="3"/>
         <v>88</v>
       </c>
-      <c r="I71" s="7" t="s">
+      <c r="I74" s="7" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B72" s="10" t="s">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B75" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C72" s="10" t="s">
+      <c r="C75" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="D72" s="10">
-        <v>1</v>
-      </c>
-      <c r="E72" s="10" t="s">
+      <c r="D75" s="10">
+        <v>1</v>
+      </c>
+      <c r="E75" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="F72" s="10">
+      <c r="F75" s="10">
         <v>540</v>
       </c>
-      <c r="G72" s="10">
+      <c r="G75" s="10">
         <f t="shared" si="3"/>
         <v>540</v>
       </c>
-      <c r="H72" s="10"/>
-      <c r="I72" s="4" t="s">
+      <c r="H75" s="10"/>
+      <c r="I75" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B73" s="1" t="s">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B76" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C76" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D73" s="1">
-        <v>1</v>
-      </c>
-      <c r="E73" s="1" t="s">
+      <c r="D76" s="1">
+        <v>1</v>
+      </c>
+      <c r="E76" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F73" s="1">
+      <c r="F76" s="1">
         <v>75</v>
       </c>
-      <c r="G73" s="1">
+      <c r="G76" s="1">
         <f t="shared" si="3"/>
         <v>75</v>
       </c>
-      <c r="I73" s="4" t="s">
+      <c r="I76" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B74" s="10" t="s">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B77" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C74" s="10"/>
-      <c r="D74" s="10">
+      <c r="C77" s="10"/>
+      <c r="D77" s="10">
         <v>2</v>
       </c>
-      <c r="E74" s="10" t="s">
+      <c r="E77" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F74" s="10">
+      <c r="F77" s="10">
         <v>329</v>
       </c>
-      <c r="G74" s="10">
+      <c r="G77" s="10">
         <f t="shared" si="3"/>
         <v>658</v>
       </c>
-      <c r="H74" s="10"/>
-      <c r="I74" s="7" t="s">
+      <c r="H77" s="10"/>
+      <c r="I77" s="7" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A75" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="B75" s="15"/>
-      <c r="C75" s="15"/>
-      <c r="D75" s="15"/>
-      <c r="E75" s="15"/>
-      <c r="F75" s="15"/>
-      <c r="G75" s="15"/>
-      <c r="H75" s="15"/>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B76" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C76" s="10"/>
-      <c r="D76" s="10">
-        <v>1</v>
-      </c>
-      <c r="E76" s="10"/>
-      <c r="F76" s="10">
-        <v>1499</v>
-      </c>
-      <c r="G76" s="10">
-        <f t="shared" si="3"/>
-        <v>1499</v>
-      </c>
-      <c r="H76" s="10"/>
-      <c r="I76" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B77" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C77" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="D77" s="10">
-        <v>1</v>
-      </c>
-      <c r="E77" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="F77" s="10">
-        <v>358</v>
-      </c>
-      <c r="G77" s="10">
-        <f t="shared" si="3"/>
-        <v>358</v>
-      </c>
-      <c r="H77" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="I77" s="4" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" s="15" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B78" s="15"/>
       <c r="C78" s="15"/>
@@ -2478,443 +2518,503 @@
       <c r="F78" s="15"/>
       <c r="G78" s="15"/>
       <c r="H78" s="15"/>
-      <c r="I78" s="4"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B79" s="8" t="s">
+      <c r="B79" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C79" s="10"/>
+      <c r="D79" s="10">
+        <v>1</v>
+      </c>
+      <c r="E79" s="10"/>
+      <c r="F79" s="10">
+        <v>1499</v>
+      </c>
+      <c r="G79" s="10">
+        <f t="shared" si="3"/>
+        <v>1499</v>
+      </c>
+      <c r="H79" s="10"/>
+      <c r="I79" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B80" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C80" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D80" s="10">
+        <v>1</v>
+      </c>
+      <c r="E80" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F80" s="10">
+        <v>358</v>
+      </c>
+      <c r="G80" s="10">
+        <f t="shared" si="3"/>
+        <v>358</v>
+      </c>
+      <c r="H80" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="I80" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A81" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B81" s="15"/>
+      <c r="C81" s="15"/>
+      <c r="D81" s="15"/>
+      <c r="E81" s="15"/>
+      <c r="F81" s="15"/>
+      <c r="G81" s="15"/>
+      <c r="H81" s="15"/>
+      <c r="I81" s="4"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B82" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="C79" s="8"/>
-      <c r="D79" s="8">
-        <v>1</v>
-      </c>
-      <c r="E79" s="8"/>
-      <c r="F79" s="8">
+      <c r="C82" s="8"/>
+      <c r="D82" s="8">
+        <v>1</v>
+      </c>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8">
         <v>1599</v>
       </c>
-      <c r="G79" s="8">
-        <f>D79*F79</f>
+      <c r="G82" s="8">
+        <f>D82*F82</f>
         <v>1599</v>
       </c>
-      <c r="H79" s="8" t="s">
+      <c r="H82" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="I79" s="4" t="s">
+      <c r="I82" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B80" s="1" t="s">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B83" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="C83" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D80" s="1">
-        <v>1</v>
-      </c>
-      <c r="F80" s="1">
+      <c r="D83" s="1">
+        <v>1</v>
+      </c>
+      <c r="F83" s="1">
         <v>13</v>
       </c>
-      <c r="G80" s="1">
+      <c r="G83" s="1">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="I80" s="4" t="s">
+      <c r="I83" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B81" s="9" t="s">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B84" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="C81" s="9" t="s">
+      <c r="C84" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="D81" s="1">
-        <v>1</v>
-      </c>
-      <c r="F81" s="1">
+      <c r="D84" s="1">
+        <v>1</v>
+      </c>
+      <c r="F84" s="1">
         <v>6.9</v>
       </c>
-      <c r="G81" s="1">
+      <c r="G84" s="1">
         <f t="shared" si="3"/>
         <v>6.9</v>
       </c>
-      <c r="I81" s="4" t="s">
+      <c r="I84" s="4" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B82" s="9" t="s">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B85" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="C82" s="9" t="s">
+      <c r="C85" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="D82" s="1">
-        <v>1</v>
-      </c>
-      <c r="F82" s="1">
+      <c r="D85" s="1">
+        <v>1</v>
+      </c>
+      <c r="F85" s="1">
         <v>14.3</v>
       </c>
-      <c r="G82" s="1">
+      <c r="G85" s="1">
         <f t="shared" si="3"/>
         <v>14.3</v>
       </c>
-      <c r="I82" s="4" t="s">
+      <c r="I85" s="4" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A83" s="15" t="s">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A86" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="B83" s="15"/>
-      <c r="C83" s="15"/>
-      <c r="D83" s="15"/>
-      <c r="E83" s="15"/>
-      <c r="F83" s="15"/>
-      <c r="G83" s="15"/>
-      <c r="H83" s="15"/>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B84" s="3" t="s">
+      <c r="B86" s="15"/>
+      <c r="C86" s="15"/>
+      <c r="D86" s="15"/>
+      <c r="E86" s="15"/>
+      <c r="F86" s="15"/>
+      <c r="G86" s="15"/>
+      <c r="H86" s="15"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B87" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C84" s="3"/>
-      <c r="D84" s="3">
-        <v>1</v>
-      </c>
-      <c r="E84" s="3" t="s">
+      <c r="C87" s="3"/>
+      <c r="D87" s="3">
+        <v>1</v>
+      </c>
+      <c r="E87" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F84" s="3">
+      <c r="F87" s="3">
         <v>309</v>
       </c>
-      <c r="G84" s="3">
+      <c r="G87" s="3">
         <f t="shared" si="3"/>
         <v>309</v>
       </c>
-      <c r="H84" s="3"/>
-      <c r="I84" s="4" t="s">
+      <c r="H87" s="3"/>
+      <c r="I87" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A85" s="15" t="s">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A88" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="B85" s="15"/>
-      <c r="C85" s="15"/>
-      <c r="D85" s="15"/>
-      <c r="E85" s="15"/>
-      <c r="F85" s="15"/>
-      <c r="G85" s="15"/>
-      <c r="H85" s="15"/>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A86" s="12"/>
-      <c r="B86" s="14" t="s">
+      <c r="B88" s="15"/>
+      <c r="C88" s="15"/>
+      <c r="D88" s="15"/>
+      <c r="E88" s="15"/>
+      <c r="F88" s="15"/>
+      <c r="G88" s="15"/>
+      <c r="H88" s="15"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A89" s="12"/>
+      <c r="B89" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="C86" s="14"/>
-      <c r="D86" s="14">
-        <v>1</v>
-      </c>
-      <c r="E86" s="14"/>
-      <c r="F86" s="14">
+      <c r="C89" s="14"/>
+      <c r="D89" s="14">
+        <v>1</v>
+      </c>
+      <c r="E89" s="14"/>
+      <c r="F89" s="14">
         <v>23</v>
       </c>
-      <c r="G86" s="14"/>
-      <c r="H86" s="14"/>
-      <c r="I86" s="7" t="s">
+      <c r="G89" s="14"/>
+      <c r="H89" s="14"/>
+      <c r="I89" s="7" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B87" s="1" t="s">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B90" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="C90" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D87" s="1">
-        <v>1</v>
-      </c>
-      <c r="F87" s="1">
+      <c r="D90" s="1">
+        <v>1</v>
+      </c>
+      <c r="F90" s="1">
         <v>28.8</v>
       </c>
-      <c r="G87" s="1">
+      <c r="G90" s="1">
         <f t="shared" si="3"/>
         <v>28.8</v>
       </c>
-      <c r="I87" s="4" t="s">
+      <c r="I90" s="4" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B88" s="1" t="s">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B91" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="C91" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D88" s="1">
+      <c r="D91" s="1">
         <v>2</v>
       </c>
-      <c r="F88" s="1">
+      <c r="F91" s="1">
         <v>22.5</v>
       </c>
-      <c r="G88" s="1">
+      <c r="G91" s="1">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="I88" s="4" t="s">
+      <c r="I91" s="4" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B89" s="1" t="s">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B92" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="C92" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D89" s="1">
+      <c r="D92" s="1">
         <v>2</v>
       </c>
-      <c r="G89" s="1">
+      <c r="G92" s="1">
         <v>12</v>
       </c>
-      <c r="I89" s="4" t="s">
+      <c r="I92" s="4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B90" s="1" t="s">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B93" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="C93" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D90" s="1">
-        <v>1</v>
-      </c>
-      <c r="F90" s="1">
+      <c r="D93" s="1">
+        <v>1</v>
+      </c>
+      <c r="F93" s="1">
         <v>6.7</v>
       </c>
-      <c r="G90" s="1">
+      <c r="G93" s="1">
         <f t="shared" si="3"/>
         <v>6.7</v>
       </c>
-      <c r="I90" s="4" t="s">
+      <c r="I93" s="4" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B91" s="1" t="s">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B94" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="C94" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D91" s="1">
-        <v>1</v>
-      </c>
-      <c r="F91" s="1">
+      <c r="D94" s="1">
+        <v>1</v>
+      </c>
+      <c r="F94" s="1">
         <v>129</v>
       </c>
-      <c r="G91" s="1">
+      <c r="G94" s="1">
         <f t="shared" si="3"/>
         <v>129</v>
       </c>
-      <c r="I91" s="4" t="s">
+      <c r="I94" s="4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B92" s="1" t="s">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B95" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="C95" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D92" s="1">
+      <c r="D95" s="1">
         <v>2</v>
       </c>
-      <c r="F92" s="1">
+      <c r="F95" s="1">
         <v>5.39</v>
       </c>
-      <c r="G92" s="1">
+      <c r="G95" s="1">
         <f t="shared" si="3"/>
         <v>10.78</v>
       </c>
-      <c r="I92" s="4" t="s">
+      <c r="I95" s="4" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C93" s="1" t="s">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C96" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D93" s="1">
+      <c r="D96" s="1">
         <v>2</v>
       </c>
-      <c r="F93" s="1">
+      <c r="F96" s="1">
         <v>6.12</v>
       </c>
-      <c r="G93" s="1">
+      <c r="G96" s="1">
         <f t="shared" si="3"/>
         <v>12.24</v>
       </c>
-      <c r="I93" s="4"/>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C94" s="1" t="s">
+      <c r="I96" s="4"/>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C97" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D94" s="1">
+      <c r="D97" s="1">
         <v>2</v>
       </c>
-      <c r="F94" s="1">
+      <c r="F97" s="1">
         <v>7.5</v>
       </c>
-      <c r="G94" s="1">
+      <c r="G97" s="1">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="I94" s="4"/>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B95" s="1" t="s">
+      <c r="I97" s="4"/>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B98" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="C98" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D95" s="1">
-        <v>1</v>
-      </c>
-      <c r="F95" s="1">
+      <c r="D98" s="1">
+        <v>1</v>
+      </c>
+      <c r="F98" s="1">
         <v>34.9</v>
       </c>
-      <c r="G95" s="1">
+      <c r="G98" s="1">
         <f t="shared" si="3"/>
         <v>34.9</v>
       </c>
-      <c r="I95" s="7" t="s">
+      <c r="I98" s="7" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B96" s="1" t="s">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B99" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="C99" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D96" s="1">
-        <v>1</v>
-      </c>
-      <c r="F96" s="1">
+      <c r="D99" s="1">
+        <v>1</v>
+      </c>
+      <c r="F99" s="1">
         <v>12.8</v>
       </c>
-      <c r="G96" s="1">
+      <c r="G99" s="1">
         <f t="shared" si="3"/>
         <v>12.8</v>
       </c>
-      <c r="I96" s="7" t="s">
+      <c r="I99" s="7" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C97" s="1" t="s">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C100" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D97" s="1">
-        <v>1</v>
-      </c>
-      <c r="F97" s="1">
+      <c r="D100" s="1">
+        <v>1</v>
+      </c>
+      <c r="F100" s="1">
         <v>12.8</v>
       </c>
-      <c r="G97" s="1">
+      <c r="G100" s="1">
         <f t="shared" si="3"/>
         <v>12.8</v>
       </c>
-      <c r="I97" s="7"/>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A98" s="15" t="s">
+      <c r="I100" s="7"/>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A101" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="B98" s="15"/>
-      <c r="C98" s="15"/>
-      <c r="D98" s="15"/>
-      <c r="E98" s="15"/>
-      <c r="G98" s="15" t="e">
-        <f>SUM(G55:G97)-#REF!-G72-G74-G84-SUM(G87:G97)</f>
+      <c r="B101" s="15"/>
+      <c r="C101" s="15"/>
+      <c r="D101" s="15"/>
+      <c r="E101" s="15"/>
+      <c r="G101" s="15" t="e">
+        <f>SUM(G58:G100)-#REF!-G75-G77-G87-SUM(G90:G100)</f>
         <v>#REF!</v>
       </c>
-      <c r="H98" s="15"/>
-      <c r="I98" s="4"/>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A99" s="15" t="s">
+      <c r="H101" s="15"/>
+      <c r="I101" s="4"/>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A102" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="B99" s="15"/>
-      <c r="C99" s="15"/>
-      <c r="D99" s="15"/>
-      <c r="E99" s="15"/>
-      <c r="G99" s="15">
-        <f>SUM(G22:G97)</f>
+      <c r="B102" s="15"/>
+      <c r="C102" s="15"/>
+      <c r="D102" s="15"/>
+      <c r="E102" s="15"/>
+      <c r="G102" s="15">
+        <f>SUM(G22:G100)</f>
         <v>7137.0099999999993</v>
       </c>
-      <c r="H99" s="15"/>
+      <c r="H102" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A99:E99"/>
-    <mergeCell ref="G99:H99"/>
+    <mergeCell ref="A102:E102"/>
+    <mergeCell ref="G102:H102"/>
     <mergeCell ref="B23:B28"/>
     <mergeCell ref="I39:P41"/>
     <mergeCell ref="I29:P32"/>
     <mergeCell ref="I34:P35"/>
     <mergeCell ref="I36:P38"/>
-    <mergeCell ref="A75:H75"/>
     <mergeCell ref="A78:H78"/>
-    <mergeCell ref="A83:H83"/>
-    <mergeCell ref="A85:H85"/>
-    <mergeCell ref="A98:E98"/>
-    <mergeCell ref="G98:H98"/>
+    <mergeCell ref="A81:H81"/>
+    <mergeCell ref="A86:H86"/>
+    <mergeCell ref="A88:H88"/>
+    <mergeCell ref="A101:E101"/>
+    <mergeCell ref="G101:H101"/>
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="A22:H22"/>
     <mergeCell ref="A45:H45"/>
-    <mergeCell ref="A55:H55"/>
-    <mergeCell ref="A68:H68"/>
+    <mergeCell ref="A58:H58"/>
+    <mergeCell ref="A71:H71"/>
     <mergeCell ref="C13:C20"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I62" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="I60" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="I61" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="I65" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="I64" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="I72" r:id="rId6" location="detail" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="I73" r:id="rId7" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="I76" r:id="rId8" location="detail" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="I77" r:id="rId9" location="detail" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="I79" r:id="rId10" location="detail" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="I80" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="I84" r:id="rId12" location="detail" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="I88" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="I87" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="I90" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="I91" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="I92" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="I89" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="I65" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="I63" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="I64" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="I68" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="I67" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="I75" r:id="rId6" location="detail" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="I76" r:id="rId7" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="I79" r:id="rId8" location="detail" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="I80" r:id="rId9" location="detail" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="I82" r:id="rId10" location="detail" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="I83" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="I87" r:id="rId12" location="detail" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="I91" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="I90" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="I93" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="I94" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="I95" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="I92" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
     <hyperlink ref="I24" r:id="rId19" location="detail" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
     <hyperlink ref="I28" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
     <hyperlink ref="I23" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
@@ -2927,32 +3027,33 @@
     <hyperlink ref="I36" r:id="rId28" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
     <hyperlink ref="I39" r:id="rId29" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
     <hyperlink ref="I42" r:id="rId30" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="I66" r:id="rId31" location="detail" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="I67" r:id="rId32" location="detail" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="I74" r:id="rId33" location="detail" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="I95" r:id="rId34" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="I96" r:id="rId35" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="I58" r:id="rId36" tooltip="https://item.taobao.com/item.htm?spm=a1z0d.6639537/tb.1997196601.3.51d67484cqyITV&amp;id=551701542887" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="I59" r:id="rId37" location="detail" display="https://item.taobao.com/item.htm?spm=a21n57.1.0.0.1537523cJuCGqk&amp;id=609343192997&amp;ns=1&amp;abbucket=10 - detail" xr:uid="{178B1383-475C-4454-A036-FE95A87602F2}"/>
-    <hyperlink ref="I81" r:id="rId38" display="https://detail.tmall.com/item.htm?abbucket=10&amp;id=615012642620&amp;ns=1&amp;skuId=4501149342430&amp;spm=a21n57.1.0.0.5e29523cZa90lK" xr:uid="{435399B9-9DCF-4D76-B00B-40B1C9D2301A}"/>
-    <hyperlink ref="I82" r:id="rId39" display="https://detail.tmall.com/item.htm?abbucket=10&amp;id=41337916197&amp;ns=1&amp;spm=a21n57.1.0.0.1dfa523chIKpDQ&amp;skuId=4169944936324" xr:uid="{537B06F1-D497-49E8-85B6-883AD1701F9E}"/>
-    <hyperlink ref="I56" r:id="rId40" display="https://item.taobao.com/item.htm?spm=a21n57.1.item.3.27a3523cBA2Wfz&amp;priceTId=2147812c17183453649536236e7568&amp;id=676469984559&amp;ns=1&amp;abbucket=2&amp;sku_properties=31309:27629118148" xr:uid="{033D4F61-1EAB-4AFB-A317-AE131D596EDF}"/>
-    <hyperlink ref="I57" r:id="rId41" display="https://item.taobao.com/item.htm?spm=a1z10.3-c-s.w4002-14528659884.13.12a4829ceX3Pfx&amp;id=618271586432&amp;sku_properties=31309:3963438427" xr:uid="{6B2967FF-58CE-4B61-B6DA-D13C4C25AB54}"/>
+    <hyperlink ref="I69" r:id="rId31" location="detail" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="I70" r:id="rId32" location="detail" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="I77" r:id="rId33" location="detail" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="I98" r:id="rId34" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="I99" r:id="rId35" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="I61" r:id="rId36" tooltip="https://item.taobao.com/item.htm?spm=a1z0d.6639537/tb.1997196601.3.51d67484cqyITV&amp;id=551701542887" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="I62" r:id="rId37" location="detail" display="https://item.taobao.com/item.htm?spm=a21n57.1.0.0.1537523cJuCGqk&amp;id=609343192997&amp;ns=1&amp;abbucket=10 - detail" xr:uid="{178B1383-475C-4454-A036-FE95A87602F2}"/>
+    <hyperlink ref="I84" r:id="rId38" display="https://detail.tmall.com/item.htm?abbucket=10&amp;id=615012642620&amp;ns=1&amp;skuId=4501149342430&amp;spm=a21n57.1.0.0.5e29523cZa90lK" xr:uid="{435399B9-9DCF-4D76-B00B-40B1C9D2301A}"/>
+    <hyperlink ref="I85" r:id="rId39" display="https://detail.tmall.com/item.htm?abbucket=10&amp;id=41337916197&amp;ns=1&amp;spm=a21n57.1.0.0.1dfa523chIKpDQ&amp;skuId=4169944936324" xr:uid="{537B06F1-D497-49E8-85B6-883AD1701F9E}"/>
+    <hyperlink ref="I59" r:id="rId40" display="https://item.taobao.com/item.htm?spm=a21n57.1.item.3.27a3523cBA2Wfz&amp;priceTId=2147812c17183453649536236e7568&amp;id=676469984559&amp;ns=1&amp;abbucket=2&amp;sku_properties=31309:27629118148" xr:uid="{033D4F61-1EAB-4AFB-A317-AE131D596EDF}"/>
+    <hyperlink ref="I60" r:id="rId41" display="https://item.taobao.com/item.htm?spm=a1z10.3-c-s.w4002-14528659884.13.12a4829ceX3Pfx&amp;id=618271586432&amp;sku_properties=31309:3963438427" xr:uid="{6B2967FF-58CE-4B61-B6DA-D13C4C25AB54}"/>
     <hyperlink ref="I43" r:id="rId42" display="https://item.taobao.com/item.htm?spm=a1z10.3-c-s.w4002-14528659884.9.67dc829cotT4wp&amp;id=22337672173&amp;sku_properties=31309:105375" xr:uid="{74F93FC3-A867-474C-87E1-F4BC4813ECE4}"/>
     <hyperlink ref="I44" r:id="rId43" display="https://item.taobao.com/item.htm?spm=a1z10.3-c-s.w4002-14528659884.41.7a1a829cLeTHHf&amp;id=719115773830" xr:uid="{C291C137-C685-49BC-9630-7A5EBF044FDF}"/>
-    <hyperlink ref="I70" r:id="rId44" display="https://item.taobao.com/item.htm?spm=a230r.7195193.1997079397.10.c71e65d6GRAKsp&amp;id=692735724689&amp;abbucket=2" xr:uid="{1018C267-4E02-473B-8CC4-B4C23132D4E0}"/>
-    <hyperlink ref="I69" r:id="rId45" display="https://item.taobao.com/item.htm?spm=a230r.7195193.1997079397.7.c71e65d6GRAKsp&amp;id=720171355815&amp;abbucket=2" xr:uid="{9A346A8E-E1DF-4C07-A182-036AA435E9B3}"/>
-    <hyperlink ref="I71" r:id="rId46" display="https://item.taobao.com/item.htm?spm=a230r.7195193.1997079397.8.c71e65d6GRAKsp&amp;id=694055578683&amp;abbucket=2" xr:uid="{F46C6CF6-C478-40E9-B2DD-0A972C664AA3}"/>
+    <hyperlink ref="I73" r:id="rId44" display="https://item.taobao.com/item.htm?spm=a230r.7195193.1997079397.10.c71e65d6GRAKsp&amp;id=692735724689&amp;abbucket=2" xr:uid="{1018C267-4E02-473B-8CC4-B4C23132D4E0}"/>
+    <hyperlink ref="I72" r:id="rId45" display="https://item.taobao.com/item.htm?spm=a230r.7195193.1997079397.7.c71e65d6GRAKsp&amp;id=720171355815&amp;abbucket=2" xr:uid="{9A346A8E-E1DF-4C07-A182-036AA435E9B3}"/>
+    <hyperlink ref="I74" r:id="rId46" display="https://item.taobao.com/item.htm?spm=a230r.7195193.1997079397.8.c71e65d6GRAKsp&amp;id=694055578683&amp;abbucket=2" xr:uid="{F46C6CF6-C478-40E9-B2DD-0A972C664AA3}"/>
     <hyperlink ref="I46" r:id="rId47" display="https://item.taobao.com/item.htm?spm=a21n57.1.item.4.4c44523chJe8tB&amp;priceTId=213e36c017188698792078917e25b2&amp;utparam=%7B%22aplus_abtest%22:%229fb89e70504917389827bf91c4c5c4e6%22%7D&amp;id=700660552967&amp;ns=1&amp;abbucket=2" xr:uid="{22D17EB9-4A53-454C-9584-528A3DD32102}"/>
     <hyperlink ref="I47" r:id="rId48" display="https://item.taobao.com/item.htm?spm=a21n57.1.item.47.4c44523chJe8tB&amp;priceTId=213e36c017188701907781480e25b2&amp;utparam=%7B%22aplus_abtest%22:%22b8e0d7b1f1ebc88d7a49535c6e8e75d3%22%7D&amp;id=688261600369&amp;ns=1&amp;abbucket=2&amp;skuId=5080471143948" xr:uid="{4FACA32A-4D5F-4E76-80F4-04D2A2B8C50B}"/>
     <hyperlink ref="I48" r:id="rId49" display="https://item.taobao.com/item.htm?spm=a1z10.5-c.w4002-25368749467.11.1d9548aapSLi4v&amp;id=689188739754&amp;skuId=5076400810713" xr:uid="{0D4F3F7D-3E8F-42AE-B075-11EB67C0BED5}"/>
     <hyperlink ref="I49" r:id="rId50" xr:uid="{927C3697-D603-4BC7-9E09-228FB35A6838}"/>
     <hyperlink ref="I52" r:id="rId51" display="https://item.taobao.com/item.htm?spm=pc_detail.29232929/evo401271b517998.guessitem.d1.7d607dd6nHQuz4&amp;id=753243709584" xr:uid="{5AA5C341-0569-4554-BA55-54493B8E8105}"/>
-    <hyperlink ref="I86" r:id="rId52" display="https://item.taobao.com/item.htm?spm=a21n57.1.item.164.4c44523chJe8tB&amp;priceTId=2147bfba17188717355864496e3d23&amp;utparam=%7B%22aplus_abtest%22:%22b31ca5c39dc780dbf49c2a2df6424885%22%7D&amp;id=581323214322&amp;ns=1&amp;abbucket=2&amp;sku_properties=31309:2354079721" xr:uid="{F4F9E4BC-8585-44DD-9081-DE9814921B52}"/>
+    <hyperlink ref="I89" r:id="rId52" display="https://item.taobao.com/item.htm?spm=a21n57.1.item.164.4c44523chJe8tB&amp;priceTId=2147bfba17188717355864496e3d23&amp;utparam=%7B%22aplus_abtest%22:%22b31ca5c39dc780dbf49c2a2df6424885%22%7D&amp;id=581323214322&amp;ns=1&amp;abbucket=2&amp;sku_properties=31309:2354079721" xr:uid="{F4F9E4BC-8585-44DD-9081-DE9814921B52}"/>
     <hyperlink ref="I50" r:id="rId53" display="https://item.taobao.com/item.htm?id=719725474621" xr:uid="{370BDED8-CF89-480B-98A3-54CCBF6B8D9B}"/>
+    <hyperlink ref="I54" r:id="rId54" display="https://detail.tmall.com/item.htm?spm=a21n57.1.item.3.1082523casUOac&amp;priceTId=214780e717193839764887412e924f&amp;utparam=%7B%22aplus_abtest%22%3A%22d6bee6c2784ee58e67e28456710393dd%22%7D&amp;id=731213461192&amp;ns=1&amp;abbucket=2" xr:uid="{2F62E727-1552-430A-B919-14B6AEB602FF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId54"/>
-  <drawing r:id="rId55"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId55"/>
+  <drawing r:id="rId56"/>
 </worksheet>
 </file>
--- a/Cherima5_材料清单-2024.6.14.xlsx
+++ b/Cherima5_材料清单-2024.6.14.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\__Workspace\Hardware\【分件】Chimera_5_XMU_修改\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66713802-9633-4CE9-AD5D-BFE1664F9330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED4417AB-FE76-4AE2-A852-8D95C2E46D0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-2205" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="216">
   <si>
     <t>序号</t>
   </si>
@@ -242,9 +242,6 @@
   </si>
   <si>
     <t>机载计算模块</t>
-  </si>
-  <si>
-    <t>ASUS Tinker Edge R</t>
   </si>
   <si>
     <t>信息学院老师负责提供</t>
@@ -655,20 +652,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>SH1.0mm立贴/卧贴针座SMT连接器座子 2P/3/4/5/6-10P插座/接插件-淘宝网 (taobao.com)</t>
-  </si>
-  <si>
-    <t>MX1.25mm立贴/卧贴/2P/3P/4/5-12P 贴片连接器接插件 SMT针座端子-淘宝网 (taobao.com)</t>
-  </si>
-  <si>
-    <t>SH1.0mm-4Pin-立贴</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>MX1.25mm-4Pin-卧贴</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>线定制</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -681,43 +664,82 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>4p5p双层屏蔽SH1.0/MX1.25/PH2.0/XH2.54杜邦2.54端子屏蔽线28AWG-淘宝网 (taobao.com)</t>
-  </si>
-  <si>
     <t>计算机板-分电板，问一下能不能订7.5cm的，不行就是10cm</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>MX1.25mm-4pin转MX1.25mm-4pin 反相 5cm 带信号屏蔽</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>SH1.0mm-4pin转SH1.0mm-4pin 反相 5cm</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>飞控-分电板</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>自组网网口-分电板，问一下能不能订5cm的，不行就是10cm</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>SH1.0mm-4pin转SH1.0mm-4pin 反相 15cm</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>分电板-GPIO，这个好像可以直接买</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>自组网供电</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>天线固定胶</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>天线固定胶水适用于睿思凯FRSKY R9 mini X4RSB XM+ R-XSR接收机-淘宝网 (taobao.com)</t>
+  </si>
+  <si>
+    <t>定制端子转水晶头8P8C网口RG45连接线1.25端子4芯2.54端子ph2.0-淘宝网 (taobao.com)</t>
+  </si>
+  <si>
+    <t>根</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞控-接收机，可以长一些</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>SH1.0mm间距 单头/双头电子线 连接线端子线2P/3P/4P/5P/6P/-12P-tmall.com天猫</t>
+  </si>
+  <si>
+    <t>1.0mm电子线 端子链接线 2/3/4/5/6/7/8/9/10P 10/15/20CM单/双头-淘宝网 (taobao.com)</t>
+  </si>
+  <si>
+    <t>1.25MM间距连接线 2p/3/4/5/6/7/8/9/10P 单双头电子端子线 28AWG-淘宝网 (taobao.com)</t>
+  </si>
+  <si>
+    <t>400万1080双目相机同帧同步三维重建深度检测VR测距USB摄像头模组-淘宝网 (taobao.com)</t>
+  </si>
+  <si>
+    <t>双目相机</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲁班猫4</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>MX1.25mm-4pin转MX1.25mm-4pin 反相 5cm</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>母头</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>MX1.25mm-4Pin-立贴</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>GH1.25mm-3Pin-卧贴</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>GH1.25mm-4Pin-卧贴</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>SH1.0mm-4Pin-卧贴</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t>MX1.25mm-4pin 单头</t>
+      <t>RJ</t>
     </r>
     <r>
       <rPr>
@@ -727,54 +749,176 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> 10cm</t>
+      <t>45接头×2</t>
     </r>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>天线固定胶</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>天线固定胶水适用于睿思凯FRSKY R9 mini X4RSB XM+ R-XSR接收机-淘宝网 (taobao.com)</t>
-  </si>
-  <si>
-    <t>定制端子转水晶头8P8C网口RG45连接线1.25端子4芯2.54端子ph2.0-淘宝网 (taobao.com)</t>
-  </si>
-  <si>
-    <t>SH1.0mm-4pin转2.54mm 杜邦 20cm</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>根</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>分电板-飞控</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>SH1.0mm转2.54mm杜邦端子线 2 3 4 5P转杜邦头信号电子延长转换线-tmall.com天猫</t>
-  </si>
-  <si>
-    <t>根</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>飞控-接收机，可以长一些</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>飞控-GPS，可以长一些</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>SH1.0mm-4pin转SH1.0mm-3pin 4pin-1号口不接 30cm</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>SH1.0mm-6pin转SH1.0mm-6pin 反向 30cm</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <t>鲁班猫扩展板-飞控接口</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲁班猫扩展板-UWB接口</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲁班猫扩展板-云台接口×2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲁班猫扩展板-GPIO接口</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2×</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>20P 2.54排座</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>MX1.25mm-4pin 单头 5cm</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞控-计算机扩展板</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SH1.0mm-4pin转SH1.0mm-4pin 反相 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5cm</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SH1.0mm-4pin转SH1.0mm-3pin 4pin-1号口不接 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0cm</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>扩展板-UWB</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>GH1.25mm 3pin转GH1.25mm-3pin 反相 15cm</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>GH1.25mm 4pin转GH1.25mm-4pin 反相</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 5cm</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>扩展板-云台</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>GH1.25MM彩排线带锁扣端子线单头/双头同向2P3P4P5P6P7P8P9P12P-淘宝网 (taobao.com)</t>
+  </si>
+  <si>
+    <t>SH1.0mm贴片连接器 立式贴片插座/卧式贴片插座连接器 2P/3P-12P-tmall.com天猫</t>
+  </si>
+  <si>
+    <t>JST1.25MM接插件连接器直针立贴卧贴2P3P4P5P6P7P8P9P10P弯针座子-淘宝网 (taobao.com)</t>
+  </si>
+  <si>
+    <t>GH1.25MM间距 立贴/卧贴贴片 带锁扣插座 接插件连接器 2P-12P-淘宝网 (taobao.com)</t>
+  </si>
+  <si>
+    <t>MX1.25mm-5pin单头</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>相机备用</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>MX1.25MM单头镀锡/双头同向/反向端子线2P3P4P5P6P-12P电子连接线-淘宝网 (taobao.com)</t>
+  </si>
+  <si>
+    <t>电阻</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1KR 0603</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>10KR 0603</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>三极管</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>SI2310</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴片三极管 SI2308 SI2309 SI2310 A8SHB/A9SHB 场效应MOS管SOT23-tmall.com天猫</t>
+  </si>
+  <si>
+    <t>0603贴片电阻1%1k2k4.7k10k47k100k0.1R0欧1欧10欧100欧120欧姆1M-tmall.com天猫</t>
   </si>
 </sst>
 </file>
@@ -883,7 +1027,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -926,9 +1070,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -936,6 +1077,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1006,14 +1159,14 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>489857</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>234499</xdr:colOff>
-      <xdr:row>102</xdr:row>
-      <xdr:rowOff>76632</xdr:rowOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>99044</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1307,16 +1460,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:P102"/>
+  <dimension ref="A2:P110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G54" sqref="G54"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="20.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.75" style="12" customWidth="1"/>
     <col min="3" max="3" width="51.875" style="1" customWidth="1"/>
     <col min="4" max="7" width="9" style="1"/>
     <col min="8" max="8" width="60.25" style="1" customWidth="1"/>
@@ -1327,7 +1480,7 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -1367,10 +1520,10 @@
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="12"/>
       <c r="B4" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
@@ -1381,10 +1534,10 @@
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="12"/>
       <c r="B5" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
@@ -1395,10 +1548,10 @@
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="12"/>
       <c r="B6" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
@@ -1409,10 +1562,10 @@
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="12"/>
       <c r="B7" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
@@ -1423,10 +1576,10 @@
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="12"/>
       <c r="B8" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
@@ -1437,10 +1590,10 @@
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="12"/>
       <c r="B9" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
@@ -1451,10 +1604,10 @@
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="12"/>
       <c r="B10" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
@@ -1465,10 +1618,10 @@
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="12"/>
       <c r="B11" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
@@ -1479,10 +1632,10 @@
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="12"/>
       <c r="B12" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
@@ -1493,10 +1646,10 @@
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="12"/>
       <c r="B13" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
@@ -1507,7 +1660,7 @@
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="12"/>
       <c r="B14" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="12"/>
@@ -1519,7 +1672,7 @@
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="12"/>
       <c r="B15" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C15" s="15"/>
       <c r="D15" s="12"/>
@@ -1531,7 +1684,7 @@
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="12"/>
       <c r="B16" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="12"/>
@@ -1543,7 +1696,7 @@
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="12"/>
       <c r="B17" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="12"/>
@@ -1555,7 +1708,7 @@
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="12"/>
       <c r="B18" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="12"/>
@@ -1567,7 +1720,7 @@
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="12"/>
       <c r="B19" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C19" s="15"/>
       <c r="D19" s="12"/>
@@ -1579,7 +1732,7 @@
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="12"/>
       <c r="B20" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="12"/>
@@ -1591,10 +1744,10 @@
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="12"/>
       <c r="B21" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="C21" s="12" t="s">
         <v>135</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>136</v>
       </c>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
@@ -1604,7 +1757,7 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
@@ -1616,7 +1769,7 @@
       <c r="I22" s="4"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="15" t="s">
         <v>10</v>
       </c>
       <c r="I23" s="5" t="s">
@@ -1624,79 +1777,79 @@
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B24" s="16"/>
+      <c r="B24" s="15"/>
       <c r="I24" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B25" s="16"/>
+      <c r="B25" s="15"/>
       <c r="I25" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B26" s="16"/>
+      <c r="B26" s="15"/>
       <c r="I26" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B27" s="16"/>
+      <c r="B27" s="15"/>
       <c r="I27" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B28" s="16"/>
+      <c r="B28" s="15"/>
       <c r="I28" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="I29" s="17" t="s">
+      <c r="I29" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="J29" s="17"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="17"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="16"/>
+      <c r="N29" s="16"/>
+      <c r="O29" s="16"/>
+      <c r="P29" s="16"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="17"/>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="17"/>
-      <c r="O30" s="17"/>
-      <c r="P30" s="17"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="16"/>
+      <c r="N30" s="16"/>
+      <c r="O30" s="16"/>
+      <c r="P30" s="16"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="17"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="16"/>
+      <c r="O31" s="16"/>
+      <c r="P31" s="16"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="I32" s="17"/>
-      <c r="J32" s="17"/>
-      <c r="K32" s="17"/>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="17"/>
-      <c r="O32" s="17"/>
-      <c r="P32" s="17"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
+      <c r="N32" s="16"/>
+      <c r="O32" s="16"/>
+      <c r="P32" s="16"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="I33" s="5" t="s">
@@ -1711,97 +1864,97 @@
       <c r="P33" s="4"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="I34" s="17" t="s">
+      <c r="I34" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="J34" s="17"/>
-      <c r="K34" s="17"/>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
-      <c r="O34" s="17"/>
-      <c r="P34" s="17"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="16"/>
+      <c r="N34" s="16"/>
+      <c r="O34" s="16"/>
+      <c r="P34" s="16"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="I35" s="17"/>
-      <c r="J35" s="17"/>
-      <c r="K35" s="17"/>
-      <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
-      <c r="N35" s="17"/>
-      <c r="O35" s="17"/>
-      <c r="P35" s="17"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="16"/>
+      <c r="M35" s="16"/>
+      <c r="N35" s="16"/>
+      <c r="O35" s="16"/>
+      <c r="P35" s="16"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="I36" s="18" t="s">
+      <c r="I36" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="J36" s="19"/>
-      <c r="K36" s="19"/>
-      <c r="L36" s="19"/>
-      <c r="M36" s="19"/>
-      <c r="N36" s="19"/>
-      <c r="O36" s="19"/>
-      <c r="P36" s="19"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="18"/>
+      <c r="M36" s="18"/>
+      <c r="N36" s="18"/>
+      <c r="O36" s="18"/>
+      <c r="P36" s="18"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="I37" s="19"/>
-      <c r="J37" s="19"/>
-      <c r="K37" s="19"/>
-      <c r="L37" s="19"/>
-      <c r="M37" s="19"/>
-      <c r="N37" s="19"/>
-      <c r="O37" s="19"/>
-      <c r="P37" s="19"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="18"/>
+      <c r="M37" s="18"/>
+      <c r="N37" s="18"/>
+      <c r="O37" s="18"/>
+      <c r="P37" s="18"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="I38" s="19"/>
-      <c r="J38" s="19"/>
-      <c r="K38" s="19"/>
-      <c r="L38" s="19"/>
-      <c r="M38" s="19"/>
-      <c r="N38" s="19"/>
-      <c r="O38" s="19"/>
-      <c r="P38" s="19"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="18"/>
+      <c r="L38" s="18"/>
+      <c r="M38" s="18"/>
+      <c r="N38" s="18"/>
+      <c r="O38" s="18"/>
+      <c r="P38" s="18"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="I39" s="17" t="s">
+      <c r="I39" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="J39" s="17"/>
-      <c r="K39" s="17"/>
-      <c r="L39" s="17"/>
-      <c r="M39" s="17"/>
-      <c r="N39" s="17"/>
-      <c r="O39" s="17"/>
-      <c r="P39" s="17"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="16"/>
+      <c r="L39" s="16"/>
+      <c r="M39" s="16"/>
+      <c r="N39" s="16"/>
+      <c r="O39" s="16"/>
+      <c r="P39" s="16"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="I40" s="17"/>
-      <c r="J40" s="17"/>
-      <c r="K40" s="17"/>
-      <c r="L40" s="17"/>
-      <c r="M40" s="17"/>
-      <c r="N40" s="17"/>
-      <c r="O40" s="17"/>
-      <c r="P40" s="17"/>
+      <c r="I40" s="16"/>
+      <c r="J40" s="16"/>
+      <c r="K40" s="16"/>
+      <c r="L40" s="16"/>
+      <c r="M40" s="16"/>
+      <c r="N40" s="16"/>
+      <c r="O40" s="16"/>
+      <c r="P40" s="16"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="H41" s="2"/>
-      <c r="I41" s="17"/>
-      <c r="J41" s="17"/>
-      <c r="K41" s="17"/>
-      <c r="L41" s="17"/>
-      <c r="M41" s="17"/>
-      <c r="N41" s="17"/>
-      <c r="O41" s="17"/>
-      <c r="P41" s="17"/>
+      <c r="I41" s="16"/>
+      <c r="J41" s="16"/>
+      <c r="K41" s="16"/>
+      <c r="L41" s="16"/>
+      <c r="M41" s="16"/>
+      <c r="N41" s="16"/>
+      <c r="O41" s="16"/>
+      <c r="P41" s="16"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="I42" s="6" t="s">
@@ -1809,30 +1962,30 @@
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="12" t="s">
         <v>26</v>
       </c>
       <c r="C43" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="I43" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B44" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="I44" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="I43" s="7" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B44" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="I44" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B45" s="15"/>
       <c r="C45" s="15"/>
@@ -1846,16 +1999,16 @@
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" s="12"/>
       <c r="B46" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="C46" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="C46" s="12" t="s">
-        <v>160</v>
-      </c>
       <c r="D46" s="12">
         <v>1</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F46" s="12">
         <v>4</v>
@@ -1865,25 +2018,25 @@
         <v>4</v>
       </c>
       <c r="H46" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="I46" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="I46" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" s="12"/>
-      <c r="B47" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="C47" s="12" t="s">
-        <v>168</v>
+      <c r="B47" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>187</v>
       </c>
       <c r="D47" s="12">
         <v>3</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F47" s="12">
         <v>0.08</v>
@@ -1892,50 +2045,50 @@
         <f t="shared" si="0"/>
         <v>0.24</v>
       </c>
-      <c r="H47" s="12"/>
+      <c r="H47" s="13" t="s">
+        <v>189</v>
+      </c>
       <c r="I47" s="7" t="s">
-        <v>166</v>
+        <v>203</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" s="12"/>
-      <c r="B48" s="12" t="s">
+      <c r="B48" s="15"/>
+      <c r="C48" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="D48" s="12">
+        <v>2</v>
+      </c>
+      <c r="E48" s="12" t="s">
         <v>164</v>
-      </c>
-      <c r="C48" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="D48" s="12">
-        <v>1</v>
-      </c>
-      <c r="E48" s="12" t="s">
-        <v>165</v>
       </c>
       <c r="F48" s="12">
         <v>0.05</v>
       </c>
       <c r="G48" s="12">
         <f t="shared" si="0"/>
-        <v>0.05</v>
-      </c>
-      <c r="H48" s="12"/>
+        <v>0.1</v>
+      </c>
+      <c r="H48" s="13" t="s">
+        <v>188</v>
+      </c>
       <c r="I48" s="7" t="s">
-        <v>167</v>
+        <v>204</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="12"/>
-      <c r="B49" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C49" s="12" t="s">
-        <v>44</v>
+      <c r="B49" s="15"/>
+      <c r="C49" s="13" t="s">
+        <v>185</v>
       </c>
       <c r="D49" s="12">
         <v>2</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F49" s="12">
         <v>1.4</v>
@@ -1944,572 +2097,532 @@
         <f t="shared" ref="G49" si="1">D49*F49</f>
         <v>2.8</v>
       </c>
-      <c r="H49" s="12"/>
-      <c r="I49" s="4" t="s">
-        <v>43</v>
+      <c r="H49" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="I49" s="7" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="12"/>
-      <c r="B50" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="C50" s="12" t="s">
-        <v>172</v>
+      <c r="B50" s="15"/>
+      <c r="C50" s="13" t="s">
+        <v>186</v>
       </c>
       <c r="D50" s="12">
-        <v>1</v>
-      </c>
-      <c r="E50" s="12" t="s">
-        <v>171</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="E50" s="12"/>
       <c r="F50" s="12"/>
       <c r="G50" s="12"/>
-      <c r="H50" s="12" t="s">
-        <v>174</v>
+      <c r="H50" s="13" t="s">
+        <v>190</v>
       </c>
       <c r="I50" s="7" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="12"/>
-      <c r="B51" s="12" t="s">
-        <v>170</v>
-      </c>
+      <c r="B51" s="15"/>
       <c r="C51" s="13" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="D51" s="12">
         <v>1</v>
       </c>
-      <c r="E51" s="12" t="s">
-        <v>171</v>
-      </c>
+      <c r="E51" s="12"/>
       <c r="F51" s="12"/>
       <c r="G51" s="12"/>
       <c r="H51" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="I51" s="7"/>
+        <v>192</v>
+      </c>
+      <c r="I51" s="4"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="12"/>
-      <c r="B52" s="12" t="s">
-        <v>170</v>
+      <c r="B52" s="15" t="s">
+        <v>42</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="D52" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="F52" s="12"/>
       <c r="G52" s="12"/>
-      <c r="H52" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="I52" s="7" t="s">
-        <v>173</v>
+      <c r="H52" s="12"/>
+      <c r="I52" s="4" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="12"/>
-      <c r="B53" s="12" t="s">
-        <v>170</v>
-      </c>
+      <c r="B53" s="15"/>
       <c r="C53" s="12" t="s">
-        <v>176</v>
+        <v>44</v>
       </c>
       <c r="D53" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="F53" s="12"/>
       <c r="G53" s="12"/>
-      <c r="H53" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="I53" s="7"/>
+      <c r="H53" s="12"/>
+      <c r="I53" s="4" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="12"/>
-      <c r="B54" s="12" t="s">
-        <v>170</v>
+      <c r="B54" s="15" t="s">
+        <v>165</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="D54" s="12">
         <v>1</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="F54" s="12"/>
       <c r="G54" s="12"/>
       <c r="H54" s="12" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="I54" s="7" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="12"/>
-      <c r="B55" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="C55" s="12" t="s">
-        <v>179</v>
+      <c r="B55" s="15"/>
+      <c r="C55" s="13" t="s">
+        <v>194</v>
       </c>
       <c r="D55" s="12">
         <v>1</v>
       </c>
       <c r="E55" s="12" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="F55" s="12"/>
       <c r="G55" s="12"/>
-      <c r="H55" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="I55" s="7"/>
+      <c r="H55" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="I55" s="7" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="12"/>
-      <c r="B56" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="C56" s="12" t="s">
-        <v>193</v>
+      <c r="B56" s="15"/>
+      <c r="C56" s="13" t="s">
+        <v>182</v>
       </c>
       <c r="D56" s="12">
         <v>1</v>
       </c>
       <c r="E56" s="12" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="F56" s="12"/>
       <c r="G56" s="12"/>
       <c r="H56" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="I56" s="7"/>
+        <v>169</v>
+      </c>
+      <c r="I56" s="7" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="12"/>
-      <c r="B57" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="C57" s="12" t="s">
-        <v>194</v>
+      <c r="B57" s="15"/>
+      <c r="C57" s="13" t="s">
+        <v>206</v>
       </c>
       <c r="D57" s="12">
         <v>1</v>
       </c>
-      <c r="E57" s="12" t="s">
-        <v>190</v>
+      <c r="E57" s="13" t="s">
+        <v>166</v>
       </c>
       <c r="F57" s="12"/>
       <c r="G57" s="12"/>
-      <c r="H57" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="I57" s="7"/>
+      <c r="H57" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="I57" s="7" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58" s="15" t="s">
+      <c r="A58" s="12"/>
+      <c r="B58" s="15"/>
+      <c r="C58" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="D58" s="12">
+        <v>1</v>
+      </c>
+      <c r="E58" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="F58" s="12"/>
+      <c r="G58" s="12"/>
+      <c r="H58" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="I58" s="7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59" s="12"/>
+      <c r="B59" s="15"/>
+      <c r="C59" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="D59" s="12">
+        <v>1</v>
+      </c>
+      <c r="E59" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="F59" s="12"/>
+      <c r="G59" s="12"/>
+      <c r="H59" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="I59" s="7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A60" s="12"/>
+      <c r="B60" s="15"/>
+      <c r="C60" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="D60" s="12">
+        <v>1</v>
+      </c>
+      <c r="H60" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="I60" s="7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A61" s="12"/>
+      <c r="B61" s="15"/>
+      <c r="C61" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="D61" s="12"/>
+      <c r="H61" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="I61" s="7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A62" s="12"/>
+      <c r="B62" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="C62" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="D62" s="12"/>
+      <c r="H62" s="9"/>
+      <c r="I62" s="7" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A63" s="12"/>
+      <c r="C63" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="D63" s="12"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="12"/>
+      <c r="G63" s="12"/>
+      <c r="H63" s="13"/>
+      <c r="I63" s="7" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A64" s="12"/>
+      <c r="B64" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="C64" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="D64" s="12"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="12"/>
+      <c r="G64" s="12"/>
+      <c r="H64" s="12"/>
+      <c r="I64" s="7" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A65" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B58" s="15"/>
-      <c r="C58" s="15"/>
-      <c r="D58" s="15"/>
-      <c r="E58" s="15"/>
-      <c r="F58" s="15"/>
-      <c r="G58" s="15"/>
-      <c r="H58" s="15"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B59" s="1" t="s">
+      <c r="B65" s="15"/>
+      <c r="C65" s="15"/>
+      <c r="D65" s="15"/>
+      <c r="E65" s="15"/>
+      <c r="F65" s="15"/>
+      <c r="G65" s="15"/>
+      <c r="H65" s="15"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B66" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C59" s="9" t="s">
+      <c r="C66" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="D66" s="1">
+        <v>4</v>
+      </c>
+      <c r="G66" s="1">
+        <v>622</v>
+      </c>
+      <c r="I66" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B67" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D67" s="1">
+        <v>4</v>
+      </c>
+      <c r="G67" s="1">
+        <v>14.9</v>
+      </c>
+      <c r="I67" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B68" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C68" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="D59" s="1">
-        <v>4</v>
-      </c>
-      <c r="G59" s="1">
-        <v>622</v>
-      </c>
-      <c r="I59" s="7" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B60" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D60" s="1">
-        <v>4</v>
-      </c>
-      <c r="G60" s="1">
-        <v>14.9</v>
-      </c>
-      <c r="I60" s="7" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B61" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C61" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="D61" s="1">
-        <v>1</v>
-      </c>
-      <c r="G61" s="1">
+      <c r="D68" s="1">
+        <v>1</v>
+      </c>
+      <c r="G68" s="1">
         <v>369</v>
       </c>
-      <c r="H61" s="1" t="s">
+      <c r="H68" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I61" s="4" t="s">
+      <c r="I68" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B62" s="10" t="s">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B69" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C62" s="10"/>
-      <c r="D62" s="10">
-        <v>1</v>
-      </c>
-      <c r="E62" s="10"/>
-      <c r="F62" s="10">
+      <c r="C69" s="10"/>
+      <c r="D69" s="10">
+        <v>1</v>
+      </c>
+      <c r="E69" s="10"/>
+      <c r="F69" s="10">
         <v>5</v>
       </c>
-      <c r="G62" s="10">
-        <f>D62*F62</f>
+      <c r="G69" s="10">
+        <f>D69*F69</f>
         <v>5</v>
       </c>
-      <c r="H62" s="11" t="s">
+      <c r="H69" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="I69" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="I62" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B63" s="1" t="s">
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B70" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D63" s="1">
-        <v>1</v>
-      </c>
-      <c r="F63" s="1">
+      <c r="D70" s="1">
+        <v>1</v>
+      </c>
+      <c r="F70" s="1">
         <v>2.2000000000000002</v>
       </c>
-      <c r="G63" s="1">
-        <f>D63*F63</f>
+      <c r="G70" s="1">
+        <f>D70*F70</f>
         <v>2.2000000000000002</v>
       </c>
-      <c r="I63" s="4" t="s">
+      <c r="I70" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B64" s="1" t="s">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B71" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C71" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D64" s="1">
-        <v>1</v>
-      </c>
-      <c r="F64" s="1">
+      <c r="D71" s="1">
+        <v>1</v>
+      </c>
+      <c r="F71" s="1">
         <v>3.8</v>
       </c>
-      <c r="G64" s="1">
-        <f>D64*F64</f>
+      <c r="G71" s="1">
+        <f>D71*F71</f>
         <v>3.8</v>
       </c>
-      <c r="H64" s="1" t="s">
+      <c r="H71" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I64" s="4" t="s">
+      <c r="I71" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B65" s="1" t="s">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B72" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C72" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D65" s="1">
-        <v>1</v>
-      </c>
-      <c r="F65" s="1">
+      <c r="D72" s="1">
+        <v>1</v>
+      </c>
+      <c r="F72" s="1">
         <v>1.4</v>
       </c>
-      <c r="G65" s="1">
-        <f>D65*F65</f>
+      <c r="G72" s="1">
+        <f>D72*F72</f>
         <v>1.4</v>
       </c>
-      <c r="I65" s="4" t="s">
+      <c r="I72" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B66" s="1" t="s">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B73" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C73" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D66" s="1">
-        <v>1</v>
-      </c>
-      <c r="F66" s="1">
+      <c r="D73" s="1">
+        <v>1</v>
+      </c>
+      <c r="F73" s="1">
         <v>1.4</v>
       </c>
-      <c r="G66" s="1">
-        <f t="shared" ref="G66:G68" si="2">D66*F66</f>
+      <c r="G73" s="1">
+        <f t="shared" ref="G73:G75" si="2">D73*F73</f>
         <v>1.4</v>
       </c>
-      <c r="I66" s="4"/>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B67" s="10" t="s">
+      <c r="I73" s="4"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B74" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="C67" s="10" t="s">
+      <c r="C74" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D67" s="10">
+      <c r="D74" s="10">
         <v>2</v>
       </c>
-      <c r="E67" s="10"/>
-      <c r="F67" s="10">
-        <v>1</v>
-      </c>
-      <c r="G67" s="10">
+      <c r="E74" s="10"/>
+      <c r="F74" s="10">
+        <v>1</v>
+      </c>
+      <c r="G74" s="10">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="H67" s="10" t="s">
+      <c r="H74" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="I67" s="4" t="s">
+      <c r="I74" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B68" s="10" t="s">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B75" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="C68" s="10" t="s">
+      <c r="C75" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D68" s="10">
+      <c r="D75" s="10">
         <v>2</v>
       </c>
-      <c r="E68" s="10"/>
-      <c r="F68" s="10">
-        <v>1</v>
-      </c>
-      <c r="G68" s="10">
+      <c r="E75" s="10"/>
+      <c r="F75" s="10">
+        <v>1</v>
+      </c>
+      <c r="G75" s="10">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="H68" s="10"/>
-      <c r="I68" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B69" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C69" s="10"/>
-      <c r="D69" s="10"/>
-      <c r="E69" s="10"/>
-      <c r="F69" s="10"/>
-      <c r="G69" s="10"/>
-      <c r="H69" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="I69" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I70" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A71" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="B71" s="15"/>
-      <c r="C71" s="15"/>
-      <c r="D71" s="15"/>
-      <c r="E71" s="15"/>
-      <c r="F71" s="15"/>
-      <c r="G71" s="15"/>
-      <c r="H71" s="15"/>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B72" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C72" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="D72" s="1">
-        <v>1</v>
-      </c>
-      <c r="E72" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="F72" s="1">
-        <v>488</v>
-      </c>
-      <c r="G72" s="1">
-        <f t="shared" ref="G72:G100" si="3">D72*F72</f>
-        <v>488</v>
-      </c>
-      <c r="I72" s="7" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B73" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="C73" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="D73" s="1">
-        <v>1</v>
-      </c>
-      <c r="F73" s="1">
-        <v>138</v>
-      </c>
-      <c r="G73" s="1">
-        <f t="shared" si="3"/>
-        <v>138</v>
-      </c>
-      <c r="I73" s="7" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B74" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="D74" s="1">
-        <v>1</v>
-      </c>
-      <c r="F74" s="1">
-        <v>88</v>
-      </c>
-      <c r="G74" s="1">
-        <f t="shared" si="3"/>
-        <v>88</v>
-      </c>
-      <c r="I74" s="7" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B75" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C75" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="D75" s="10">
-        <v>1</v>
-      </c>
-      <c r="E75" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="F75" s="10">
-        <v>540</v>
-      </c>
-      <c r="G75" s="10">
-        <f t="shared" si="3"/>
-        <v>540</v>
-      </c>
       <c r="H75" s="10"/>
       <c r="I75" s="4" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B76" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D76" s="1">
-        <v>1</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F76" s="1">
-        <v>75</v>
-      </c>
-      <c r="G76" s="1">
-        <f t="shared" si="3"/>
-        <v>75</v>
-      </c>
-      <c r="I76" s="4" t="s">
-        <v>62</v>
+      <c r="B76" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C76" s="10"/>
+      <c r="D76" s="10"/>
+      <c r="E76" s="10"/>
+      <c r="F76" s="10"/>
+      <c r="G76" s="10"/>
+      <c r="H76" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="I76" s="7" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B77" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="C77" s="10"/>
-      <c r="D77" s="10">
-        <v>2</v>
-      </c>
-      <c r="E77" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F77" s="10">
-        <v>329</v>
-      </c>
-      <c r="G77" s="10">
-        <f t="shared" si="3"/>
-        <v>658</v>
-      </c>
-      <c r="H77" s="10"/>
       <c r="I77" s="7" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" s="15" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="B78" s="15"/>
       <c r="C78" s="15"/>
@@ -2520,190 +2633,203 @@
       <c r="H78" s="15"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B79" s="10" t="s">
+      <c r="B79" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="D79" s="1">
+        <v>1</v>
+      </c>
+      <c r="E79" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="F79" s="1">
+        <v>488</v>
+      </c>
+      <c r="G79" s="1">
+        <f t="shared" ref="G79:G108" si="3">D79*F79</f>
+        <v>488</v>
+      </c>
+      <c r="I79" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B80" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="C80" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="D80" s="1">
+        <v>1</v>
+      </c>
+      <c r="F80" s="1">
+        <v>138</v>
+      </c>
+      <c r="G80" s="1">
+        <f t="shared" si="3"/>
+        <v>138</v>
+      </c>
+      <c r="I80" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B81" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="D81" s="1">
+        <v>1</v>
+      </c>
+      <c r="F81" s="1">
+        <v>88</v>
+      </c>
+      <c r="G81" s="1">
+        <f t="shared" si="3"/>
+        <v>88</v>
+      </c>
+      <c r="I81" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B82" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C82" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D82" s="10">
+        <v>1</v>
+      </c>
+      <c r="E82" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F82" s="10">
+        <v>540</v>
+      </c>
+      <c r="G82" s="10">
+        <f t="shared" si="3"/>
+        <v>540</v>
+      </c>
+      <c r="H82" s="10"/>
+      <c r="I82" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B83" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D83" s="1">
+        <v>1</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F83" s="1">
+        <v>75</v>
+      </c>
+      <c r="G83" s="1">
+        <f t="shared" si="3"/>
+        <v>75</v>
+      </c>
+      <c r="I83" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B84" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C84" s="10"/>
+      <c r="D84" s="10">
+        <v>2</v>
+      </c>
+      <c r="E84" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F84" s="10">
+        <v>329</v>
+      </c>
+      <c r="G84" s="10">
+        <f t="shared" si="3"/>
+        <v>658</v>
+      </c>
+      <c r="H84" s="10"/>
+      <c r="I84" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A85" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B85" s="15"/>
+      <c r="C85" s="15"/>
+      <c r="D85" s="15"/>
+      <c r="E85" s="15"/>
+      <c r="F85" s="15"/>
+      <c r="G85" s="15"/>
+      <c r="H85" s="15"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B86" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="C79" s="10"/>
-      <c r="D79" s="10">
-        <v>1</v>
-      </c>
-      <c r="E79" s="10"/>
-      <c r="F79" s="10">
+      <c r="C86" s="10"/>
+      <c r="D86" s="10">
+        <v>1</v>
+      </c>
+      <c r="E86" s="10"/>
+      <c r="F86" s="10">
         <v>1499</v>
       </c>
-      <c r="G79" s="10">
+      <c r="G86" s="10">
         <f t="shared" si="3"/>
         <v>1499</v>
       </c>
-      <c r="H79" s="10"/>
-      <c r="I79" s="4" t="s">
+      <c r="H86" s="10"/>
+      <c r="I86" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B80" s="10" t="s">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B87" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="C80" s="10" t="s">
+      <c r="C87" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="D80" s="10">
-        <v>1</v>
-      </c>
-      <c r="E80" s="10" t="s">
+      <c r="D87" s="10">
+        <v>1</v>
+      </c>
+      <c r="E87" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="F80" s="10">
+      <c r="F87" s="10">
         <v>358</v>
       </c>
-      <c r="G80" s="10">
+      <c r="G87" s="10">
         <f t="shared" si="3"/>
         <v>358</v>
       </c>
-      <c r="H80" s="10" t="s">
+      <c r="H87" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="I80" s="4" t="s">
+      <c r="I87" s="4" t="s">
         <v>72</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A81" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="B81" s="15"/>
-      <c r="C81" s="15"/>
-      <c r="D81" s="15"/>
-      <c r="E81" s="15"/>
-      <c r="F81" s="15"/>
-      <c r="G81" s="15"/>
-      <c r="H81" s="15"/>
-      <c r="I81" s="4"/>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B82" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C82" s="8"/>
-      <c r="D82" s="8">
-        <v>1</v>
-      </c>
-      <c r="E82" s="8"/>
-      <c r="F82" s="8">
-        <v>1599</v>
-      </c>
-      <c r="G82" s="8">
-        <f>D82*F82</f>
-        <v>1599</v>
-      </c>
-      <c r="H82" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="I82" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B83" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D83" s="1">
-        <v>1</v>
-      </c>
-      <c r="F83" s="1">
-        <v>13</v>
-      </c>
-      <c r="G83" s="1">
-        <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-      <c r="I83" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B84" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="C84" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="D84" s="1">
-        <v>1</v>
-      </c>
-      <c r="F84" s="1">
-        <v>6.9</v>
-      </c>
-      <c r="G84" s="1">
-        <f t="shared" si="3"/>
-        <v>6.9</v>
-      </c>
-      <c r="I84" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B85" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="C85" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="D85" s="1">
-        <v>1</v>
-      </c>
-      <c r="F85" s="1">
-        <v>14.3</v>
-      </c>
-      <c r="G85" s="1">
-        <f t="shared" si="3"/>
-        <v>14.3</v>
-      </c>
-      <c r="I85" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A86" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="B86" s="15"/>
-      <c r="C86" s="15"/>
-      <c r="D86" s="15"/>
-      <c r="E86" s="15"/>
-      <c r="F86" s="15"/>
-      <c r="G86" s="15"/>
-      <c r="H86" s="15"/>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B87" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C87" s="3"/>
-      <c r="D87" s="3">
-        <v>1</v>
-      </c>
-      <c r="E87" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F87" s="3">
-        <v>309</v>
-      </c>
-      <c r="G87" s="3">
-        <f t="shared" si="3"/>
-        <v>309</v>
-      </c>
-      <c r="H87" s="3"/>
-      <c r="I87" s="4" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" s="15" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B88" s="15"/>
       <c r="C88" s="15"/>
@@ -2712,309 +2838,460 @@
       <c r="F88" s="15"/>
       <c r="G88" s="15"/>
       <c r="H88" s="15"/>
+      <c r="I88" s="4"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A89" s="12"/>
-      <c r="B89" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="C89" s="14"/>
-      <c r="D89" s="14">
-        <v>1</v>
-      </c>
-      <c r="E89" s="14"/>
-      <c r="F89" s="14">
+      <c r="B89" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="C89" s="8"/>
+      <c r="D89" s="8">
+        <v>1</v>
+      </c>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8">
+        <v>1599</v>
+      </c>
+      <c r="G89" s="8">
+        <f>D89*F89</f>
+        <v>1599</v>
+      </c>
+      <c r="H89" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I89" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B90" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="C90" s="8"/>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c r="H90" s="8"/>
+      <c r="I90" s="7" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B91" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D91" s="1">
+        <v>1</v>
+      </c>
+      <c r="F91" s="1">
+        <v>13</v>
+      </c>
+      <c r="G91" s="1">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="I91" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B92" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="C92" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D92" s="1">
+        <v>1</v>
+      </c>
+      <c r="F92" s="1">
+        <v>6.9</v>
+      </c>
+      <c r="G92" s="1">
+        <f t="shared" si="3"/>
+        <v>6.9</v>
+      </c>
+      <c r="I92" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B93" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="C93" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="D93" s="1">
+        <v>1</v>
+      </c>
+      <c r="F93" s="1">
+        <v>14.3</v>
+      </c>
+      <c r="G93" s="1">
+        <f t="shared" si="3"/>
+        <v>14.3</v>
+      </c>
+      <c r="I93" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A94" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="B94" s="15"/>
+      <c r="C94" s="15"/>
+      <c r="D94" s="15"/>
+      <c r="E94" s="15"/>
+      <c r="F94" s="15"/>
+      <c r="G94" s="15"/>
+      <c r="H94" s="15"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B95" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C95" s="3"/>
+      <c r="D95" s="3">
+        <v>1</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F95" s="3">
+        <v>309</v>
+      </c>
+      <c r="G95" s="3">
+        <f t="shared" si="3"/>
+        <v>309</v>
+      </c>
+      <c r="H95" s="3"/>
+      <c r="I95" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A96" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="B96" s="15"/>
+      <c r="C96" s="15"/>
+      <c r="D96" s="15"/>
+      <c r="E96" s="15"/>
+      <c r="F96" s="15"/>
+      <c r="G96" s="15"/>
+      <c r="H96" s="15"/>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A97" s="12"/>
+      <c r="B97" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="C97" s="14"/>
+      <c r="D97" s="14">
+        <v>1</v>
+      </c>
+      <c r="E97" s="14"/>
+      <c r="F97" s="14">
         <v>23</v>
       </c>
-      <c r="G89" s="14"/>
-      <c r="H89" s="14"/>
-      <c r="I89" s="7" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B90" s="1" t="s">
+      <c r="G97" s="14"/>
+      <c r="H97" s="14"/>
+      <c r="I97" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B98" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C98" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C90" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D90" s="1">
-        <v>1</v>
-      </c>
-      <c r="F90" s="1">
+      <c r="D98" s="1">
+        <v>1</v>
+      </c>
+      <c r="F98" s="1">
         <v>28.8</v>
       </c>
-      <c r="G90" s="1">
+      <c r="G98" s="1">
         <f t="shared" si="3"/>
         <v>28.8</v>
       </c>
-      <c r="I90" s="4" t="s">
+      <c r="I98" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B99" s="12" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B91" s="1" t="s">
+      <c r="C99" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C91" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D91" s="1">
+      <c r="D99" s="1">
         <v>2</v>
       </c>
-      <c r="F91" s="1">
+      <c r="F99" s="1">
         <v>22.5</v>
       </c>
-      <c r="G91" s="1">
+      <c r="G99" s="1">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="I91" s="4" t="s">
+      <c r="I99" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B100" s="12" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B92" s="1" t="s">
+      <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="D100" s="1">
+        <v>2</v>
+      </c>
+      <c r="G100" s="1">
+        <v>12</v>
+      </c>
+      <c r="I100" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D92" s="1">
-        <v>2</v>
-      </c>
-      <c r="G92" s="1">
-        <v>12</v>
-      </c>
-      <c r="I92" s="4" t="s">
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B101" s="12" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B93" s="1" t="s">
+      <c r="C101" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C93" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D93" s="1">
-        <v>1</v>
-      </c>
-      <c r="F93" s="1">
+      <c r="D101" s="1">
+        <v>1</v>
+      </c>
+      <c r="F101" s="1">
         <v>6.7</v>
       </c>
-      <c r="G93" s="1">
+      <c r="G101" s="1">
         <f t="shared" si="3"/>
         <v>6.7</v>
       </c>
-      <c r="I93" s="4" t="s">
+      <c r="I101" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B102" s="12" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B94" s="1" t="s">
+      <c r="C102" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C94" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D94" s="1">
-        <v>1</v>
-      </c>
-      <c r="F94" s="1">
+      <c r="D102" s="1">
+        <v>1</v>
+      </c>
+      <c r="F102" s="1">
         <v>129</v>
       </c>
-      <c r="G94" s="1">
+      <c r="G102" s="1">
         <f t="shared" si="3"/>
         <v>129</v>
       </c>
-      <c r="I94" s="4" t="s">
+      <c r="I102" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B103" s="12" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B95" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C95" s="1" t="s">
+      <c r="C103" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D95" s="1">
+      <c r="D103" s="1">
         <v>2</v>
       </c>
-      <c r="F95" s="1">
+      <c r="F103" s="1">
         <v>5.39</v>
       </c>
-      <c r="G95" s="1">
+      <c r="G103" s="1">
         <f t="shared" si="3"/>
         <v>10.78</v>
       </c>
-      <c r="I95" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C96" s="1" t="s">
+      <c r="I103" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C104" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D96" s="1">
+      <c r="D104" s="1">
         <v>2</v>
       </c>
-      <c r="F96" s="1">
+      <c r="F104" s="1">
         <v>6.12</v>
       </c>
-      <c r="G96" s="1">
+      <c r="G104" s="1">
         <f t="shared" si="3"/>
         <v>12.24</v>
       </c>
-      <c r="I96" s="4"/>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C97" s="1" t="s">
+      <c r="I104" s="4"/>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C105" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D97" s="1">
+      <c r="D105" s="1">
         <v>2</v>
       </c>
-      <c r="F97" s="1">
+      <c r="F105" s="1">
         <v>7.5</v>
       </c>
-      <c r="G97" s="1">
+      <c r="G105" s="1">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="I97" s="4"/>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B98" s="1" t="s">
+      <c r="I105" s="4"/>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B106" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C106" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C98" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D98" s="1">
-        <v>1</v>
-      </c>
-      <c r="F98" s="1">
+      <c r="D106" s="1">
+        <v>1</v>
+      </c>
+      <c r="F106" s="1">
         <v>34.9</v>
       </c>
-      <c r="G98" s="1">
+      <c r="G106" s="1">
         <f t="shared" si="3"/>
         <v>34.9</v>
       </c>
-      <c r="I98" s="7" t="s">
+      <c r="I106" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B107" s="12" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B99" s="1" t="s">
+      <c r="C107" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C99" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D99" s="1">
-        <v>1</v>
-      </c>
-      <c r="F99" s="1">
+      <c r="D107" s="1">
+        <v>1</v>
+      </c>
+      <c r="F107" s="1">
         <v>12.8</v>
       </c>
-      <c r="G99" s="1">
+      <c r="G107" s="1">
         <f t="shared" si="3"/>
         <v>12.8</v>
       </c>
-      <c r="I99" s="7" t="s">
+      <c r="I107" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C108" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C100" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D100" s="1">
-        <v>1</v>
-      </c>
-      <c r="F100" s="1">
+      <c r="D108" s="1">
+        <v>1</v>
+      </c>
+      <c r="F108" s="1">
         <v>12.8</v>
       </c>
-      <c r="G100" s="1">
+      <c r="G108" s="1">
         <f t="shared" si="3"/>
         <v>12.8</v>
       </c>
-      <c r="I100" s="7"/>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A101" s="15" t="s">
+      <c r="I108" s="7"/>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A109" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="B109" s="15"/>
+      <c r="C109" s="15"/>
+      <c r="D109" s="15"/>
+      <c r="E109" s="15"/>
+      <c r="G109" s="15" t="e">
+        <f>SUM(G65:G108)-#REF!-G82-G84-G95-SUM(G98:G108)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H109" s="15"/>
+      <c r="I109" s="4"/>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A110" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="B101" s="15"/>
-      <c r="C101" s="15"/>
-      <c r="D101" s="15"/>
-      <c r="E101" s="15"/>
-      <c r="G101" s="15" t="e">
-        <f>SUM(G58:G100)-#REF!-G75-G77-G87-SUM(G90:G100)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H101" s="15"/>
-      <c r="I101" s="4"/>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A102" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="B102" s="15"/>
-      <c r="C102" s="15"/>
-      <c r="D102" s="15"/>
-      <c r="E102" s="15"/>
-      <c r="G102" s="15">
-        <f>SUM(G22:G100)</f>
-        <v>7137.0099999999993</v>
-      </c>
-      <c r="H102" s="15"/>
+      <c r="B110" s="15"/>
+      <c r="C110" s="15"/>
+      <c r="D110" s="15"/>
+      <c r="E110" s="15"/>
+      <c r="G110" s="15">
+        <f>SUM(G22:G108)</f>
+        <v>7137.0599999999995</v>
+      </c>
+      <c r="H110" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="A102:E102"/>
-    <mergeCell ref="G102:H102"/>
+  <mergeCells count="22">
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A22:H22"/>
+    <mergeCell ref="A45:H45"/>
+    <mergeCell ref="A65:H65"/>
+    <mergeCell ref="A78:H78"/>
+    <mergeCell ref="C13:C20"/>
+    <mergeCell ref="B54:B61"/>
+    <mergeCell ref="B47:B51"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="A110:E110"/>
+    <mergeCell ref="G110:H110"/>
     <mergeCell ref="B23:B28"/>
     <mergeCell ref="I39:P41"/>
     <mergeCell ref="I29:P32"/>
     <mergeCell ref="I34:P35"/>
     <mergeCell ref="I36:P38"/>
-    <mergeCell ref="A78:H78"/>
-    <mergeCell ref="A81:H81"/>
-    <mergeCell ref="A86:H86"/>
+    <mergeCell ref="A85:H85"/>
     <mergeCell ref="A88:H88"/>
-    <mergeCell ref="A101:E101"/>
-    <mergeCell ref="G101:H101"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A22:H22"/>
-    <mergeCell ref="A45:H45"/>
-    <mergeCell ref="A58:H58"/>
-    <mergeCell ref="A71:H71"/>
-    <mergeCell ref="C13:C20"/>
+    <mergeCell ref="A94:H94"/>
+    <mergeCell ref="A96:H96"/>
+    <mergeCell ref="A109:E109"/>
+    <mergeCell ref="G109:H109"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I65" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="I63" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="I64" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="I68" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="I67" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="I75" r:id="rId6" location="detail" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="I76" r:id="rId7" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="I79" r:id="rId8" location="detail" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="I80" r:id="rId9" location="detail" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="I82" r:id="rId10" location="detail" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="I83" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="I87" r:id="rId12" location="detail" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="I91" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="I90" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="I93" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="I94" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="I95" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="I92" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="I72" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="I70" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="I71" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="I75" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="I74" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="I82" r:id="rId6" location="detail" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="I83" r:id="rId7" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="I86" r:id="rId8" location="detail" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="I87" r:id="rId9" location="detail" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="I89" r:id="rId10" location="detail" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="I91" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="I95" r:id="rId12" location="detail" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="I99" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="I98" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="I101" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="I102" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="I103" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="I100" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
     <hyperlink ref="I24" r:id="rId19" location="detail" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
     <hyperlink ref="I28" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
     <hyperlink ref="I23" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
@@ -3027,33 +3304,45 @@
     <hyperlink ref="I36" r:id="rId28" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
     <hyperlink ref="I39" r:id="rId29" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
     <hyperlink ref="I42" r:id="rId30" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="I69" r:id="rId31" location="detail" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="I70" r:id="rId32" location="detail" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="I77" r:id="rId33" location="detail" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="I98" r:id="rId34" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="I99" r:id="rId35" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="I61" r:id="rId36" tooltip="https://item.taobao.com/item.htm?spm=a1z0d.6639537/tb.1997196601.3.51d67484cqyITV&amp;id=551701542887" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="I62" r:id="rId37" location="detail" display="https://item.taobao.com/item.htm?spm=a21n57.1.0.0.1537523cJuCGqk&amp;id=609343192997&amp;ns=1&amp;abbucket=10 - detail" xr:uid="{178B1383-475C-4454-A036-FE95A87602F2}"/>
-    <hyperlink ref="I84" r:id="rId38" display="https://detail.tmall.com/item.htm?abbucket=10&amp;id=615012642620&amp;ns=1&amp;skuId=4501149342430&amp;spm=a21n57.1.0.0.5e29523cZa90lK" xr:uid="{435399B9-9DCF-4D76-B00B-40B1C9D2301A}"/>
-    <hyperlink ref="I85" r:id="rId39" display="https://detail.tmall.com/item.htm?abbucket=10&amp;id=41337916197&amp;ns=1&amp;spm=a21n57.1.0.0.1dfa523chIKpDQ&amp;skuId=4169944936324" xr:uid="{537B06F1-D497-49E8-85B6-883AD1701F9E}"/>
-    <hyperlink ref="I59" r:id="rId40" display="https://item.taobao.com/item.htm?spm=a21n57.1.item.3.27a3523cBA2Wfz&amp;priceTId=2147812c17183453649536236e7568&amp;id=676469984559&amp;ns=1&amp;abbucket=2&amp;sku_properties=31309:27629118148" xr:uid="{033D4F61-1EAB-4AFB-A317-AE131D596EDF}"/>
-    <hyperlink ref="I60" r:id="rId41" display="https://item.taobao.com/item.htm?spm=a1z10.3-c-s.w4002-14528659884.13.12a4829ceX3Pfx&amp;id=618271586432&amp;sku_properties=31309:3963438427" xr:uid="{6B2967FF-58CE-4B61-B6DA-D13C4C25AB54}"/>
+    <hyperlink ref="I76" r:id="rId31" location="detail" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="I77" r:id="rId32" location="detail" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="I84" r:id="rId33" location="detail" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="I106" r:id="rId34" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="I107" r:id="rId35" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="I68" r:id="rId36" tooltip="https://item.taobao.com/item.htm?spm=a1z0d.6639537/tb.1997196601.3.51d67484cqyITV&amp;id=551701542887" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="I69" r:id="rId37" location="detail" display="https://item.taobao.com/item.htm?spm=a21n57.1.0.0.1537523cJuCGqk&amp;id=609343192997&amp;ns=1&amp;abbucket=10 - detail" xr:uid="{178B1383-475C-4454-A036-FE95A87602F2}"/>
+    <hyperlink ref="I92" r:id="rId38" display="https://detail.tmall.com/item.htm?abbucket=10&amp;id=615012642620&amp;ns=1&amp;skuId=4501149342430&amp;spm=a21n57.1.0.0.5e29523cZa90lK" xr:uid="{435399B9-9DCF-4D76-B00B-40B1C9D2301A}"/>
+    <hyperlink ref="I93" r:id="rId39" display="https://detail.tmall.com/item.htm?abbucket=10&amp;id=41337916197&amp;ns=1&amp;spm=a21n57.1.0.0.1dfa523chIKpDQ&amp;skuId=4169944936324" xr:uid="{537B06F1-D497-49E8-85B6-883AD1701F9E}"/>
+    <hyperlink ref="I66" r:id="rId40" display="https://item.taobao.com/item.htm?spm=a21n57.1.item.3.27a3523cBA2Wfz&amp;priceTId=2147812c17183453649536236e7568&amp;id=676469984559&amp;ns=1&amp;abbucket=2&amp;sku_properties=31309:27629118148" xr:uid="{033D4F61-1EAB-4AFB-A317-AE131D596EDF}"/>
+    <hyperlink ref="I67" r:id="rId41" display="https://item.taobao.com/item.htm?spm=a1z10.3-c-s.w4002-14528659884.13.12a4829ceX3Pfx&amp;id=618271586432&amp;sku_properties=31309:3963438427" xr:uid="{6B2967FF-58CE-4B61-B6DA-D13C4C25AB54}"/>
     <hyperlink ref="I43" r:id="rId42" display="https://item.taobao.com/item.htm?spm=a1z10.3-c-s.w4002-14528659884.9.67dc829cotT4wp&amp;id=22337672173&amp;sku_properties=31309:105375" xr:uid="{74F93FC3-A867-474C-87E1-F4BC4813ECE4}"/>
     <hyperlink ref="I44" r:id="rId43" display="https://item.taobao.com/item.htm?spm=a1z10.3-c-s.w4002-14528659884.41.7a1a829cLeTHHf&amp;id=719115773830" xr:uid="{C291C137-C685-49BC-9630-7A5EBF044FDF}"/>
-    <hyperlink ref="I73" r:id="rId44" display="https://item.taobao.com/item.htm?spm=a230r.7195193.1997079397.10.c71e65d6GRAKsp&amp;id=692735724689&amp;abbucket=2" xr:uid="{1018C267-4E02-473B-8CC4-B4C23132D4E0}"/>
-    <hyperlink ref="I72" r:id="rId45" display="https://item.taobao.com/item.htm?spm=a230r.7195193.1997079397.7.c71e65d6GRAKsp&amp;id=720171355815&amp;abbucket=2" xr:uid="{9A346A8E-E1DF-4C07-A182-036AA435E9B3}"/>
-    <hyperlink ref="I74" r:id="rId46" display="https://item.taobao.com/item.htm?spm=a230r.7195193.1997079397.8.c71e65d6GRAKsp&amp;id=694055578683&amp;abbucket=2" xr:uid="{F46C6CF6-C478-40E9-B2DD-0A972C664AA3}"/>
+    <hyperlink ref="I80" r:id="rId44" display="https://item.taobao.com/item.htm?spm=a230r.7195193.1997079397.10.c71e65d6GRAKsp&amp;id=692735724689&amp;abbucket=2" xr:uid="{1018C267-4E02-473B-8CC4-B4C23132D4E0}"/>
+    <hyperlink ref="I79" r:id="rId45" display="https://item.taobao.com/item.htm?spm=a230r.7195193.1997079397.7.c71e65d6GRAKsp&amp;id=720171355815&amp;abbucket=2" xr:uid="{9A346A8E-E1DF-4C07-A182-036AA435E9B3}"/>
+    <hyperlink ref="I81" r:id="rId46" display="https://item.taobao.com/item.htm?spm=a230r.7195193.1997079397.8.c71e65d6GRAKsp&amp;id=694055578683&amp;abbucket=2" xr:uid="{F46C6CF6-C478-40E9-B2DD-0A972C664AA3}"/>
     <hyperlink ref="I46" r:id="rId47" display="https://item.taobao.com/item.htm?spm=a21n57.1.item.4.4c44523chJe8tB&amp;priceTId=213e36c017188698792078917e25b2&amp;utparam=%7B%22aplus_abtest%22:%229fb89e70504917389827bf91c4c5c4e6%22%7D&amp;id=700660552967&amp;ns=1&amp;abbucket=2" xr:uid="{22D17EB9-4A53-454C-9584-528A3DD32102}"/>
-    <hyperlink ref="I47" r:id="rId48" display="https://item.taobao.com/item.htm?spm=a21n57.1.item.47.4c44523chJe8tB&amp;priceTId=213e36c017188701907781480e25b2&amp;utparam=%7B%22aplus_abtest%22:%22b8e0d7b1f1ebc88d7a49535c6e8e75d3%22%7D&amp;id=688261600369&amp;ns=1&amp;abbucket=2&amp;skuId=5080471143948" xr:uid="{4FACA32A-4D5F-4E76-80F4-04D2A2B8C50B}"/>
-    <hyperlink ref="I48" r:id="rId49" display="https://item.taobao.com/item.htm?spm=a1z10.5-c.w4002-25368749467.11.1d9548aapSLi4v&amp;id=689188739754&amp;skuId=5076400810713" xr:uid="{0D4F3F7D-3E8F-42AE-B075-11EB67C0BED5}"/>
-    <hyperlink ref="I49" r:id="rId50" xr:uid="{927C3697-D603-4BC7-9E09-228FB35A6838}"/>
-    <hyperlink ref="I52" r:id="rId51" display="https://item.taobao.com/item.htm?spm=pc_detail.29232929/evo401271b517998.guessitem.d1.7d607dd6nHQuz4&amp;id=753243709584" xr:uid="{5AA5C341-0569-4554-BA55-54493B8E8105}"/>
-    <hyperlink ref="I89" r:id="rId52" display="https://item.taobao.com/item.htm?spm=a21n57.1.item.164.4c44523chJe8tB&amp;priceTId=2147bfba17188717355864496e3d23&amp;utparam=%7B%22aplus_abtest%22:%22b31ca5c39dc780dbf49c2a2df6424885%22%7D&amp;id=581323214322&amp;ns=1&amp;abbucket=2&amp;sku_properties=31309:2354079721" xr:uid="{F4F9E4BC-8585-44DD-9081-DE9814921B52}"/>
-    <hyperlink ref="I50" r:id="rId53" display="https://item.taobao.com/item.htm?id=719725474621" xr:uid="{370BDED8-CF89-480B-98A3-54CCBF6B8D9B}"/>
-    <hyperlink ref="I54" r:id="rId54" display="https://detail.tmall.com/item.htm?spm=a21n57.1.item.3.1082523casUOac&amp;priceTId=214780e717193839764887412e924f&amp;utparam=%7B%22aplus_abtest%22%3A%22d6bee6c2784ee58e67e28456710393dd%22%7D&amp;id=731213461192&amp;ns=1&amp;abbucket=2" xr:uid="{2F62E727-1552-430A-B919-14B6AEB602FF}"/>
+    <hyperlink ref="I97" r:id="rId48" display="https://item.taobao.com/item.htm?spm=a21n57.1.item.164.4c44523chJe8tB&amp;priceTId=2147bfba17188717355864496e3d23&amp;utparam=%7B%22aplus_abtest%22:%22b31ca5c39dc780dbf49c2a2df6424885%22%7D&amp;id=581323214322&amp;ns=1&amp;abbucket=2&amp;sku_properties=31309:2354079721" xr:uid="{F4F9E4BC-8585-44DD-9081-DE9814921B52}"/>
+    <hyperlink ref="I54" r:id="rId49" display="https://item.taobao.com/item.htm?id=719725474621" xr:uid="{370BDED8-CF89-480B-98A3-54CCBF6B8D9B}"/>
+    <hyperlink ref="I90" r:id="rId50" display="https://item.taobao.com/item.htm?spm=a1z0d.6639537/tb3.1997196601.57.3e217484SmiWap&amp;id=794603973622&amp;skuId=5593817499156" xr:uid="{58DFC372-6679-438C-918F-128F25703842}"/>
+    <hyperlink ref="I52" r:id="rId51" xr:uid="{CB25C5DB-1DDE-4F9C-8745-0C68055FBA8B}"/>
+    <hyperlink ref="I53" r:id="rId52" xr:uid="{2377F13C-47A0-4317-8C0C-7DEFD0DF0234}"/>
+    <hyperlink ref="I58" r:id="rId53" display="https://detail.tmall.com/item.htm?id=586869477126&amp;spm=a1z09.2.0.0.39082e8dBTg6v9&amp;_u=4vb75br27f1&amp;sku_properties=122216547:20213" xr:uid="{B551CA75-860E-45F1-8172-F591E30EA8C4}"/>
+    <hyperlink ref="I47" r:id="rId54" display="https://detail.tmall.com/item.htm?id=580840704997&amp;spm=a1z09.2.0.0.39082e8dzzoh6k&amp;_u=4vb75breee5" xr:uid="{67B2DBD8-8D1A-457F-BF67-CB6E45E2ADC8}"/>
+    <hyperlink ref="I59" r:id="rId55" display="https://item.taobao.com/item.htm?spm=a1z09.2.0.0.39082e8dzzoh6k&amp;id=630867817751&amp;_u=4vb75brf047" xr:uid="{83C1CF25-1453-4D97-8CE2-561622E03E8A}"/>
+    <hyperlink ref="I55" r:id="rId56" display="https://item.taobao.com/item.htm?spm=a1z09.2.0.0.39082e8dzzoh6k&amp;id=642032881698&amp;_u=4vb75brd2f1" xr:uid="{7D4AE37A-5CDC-464B-ABAC-EE26F3B63A2A}"/>
+    <hyperlink ref="I56" r:id="rId57" display="https://item.taobao.com/item.htm?spm=a1z09.2.0.0.39082e8dzzoh6k&amp;id=642032881698&amp;_u=4vb75brd2f1" xr:uid="{EDBA7EF8-5D71-40B5-A673-C5BF97665B00}"/>
+    <hyperlink ref="I48" r:id="rId58" display="https://item.taobao.com/item.htm?spm=a1z09.2.0.0.39082e8dzzoh6k&amp;id=667189986700&amp;_u=4vb75br846b" xr:uid="{8BF69B71-D015-4D88-BA3C-8D5896CED0B2}"/>
+    <hyperlink ref="I50" r:id="rId59" display="https://item.taobao.com/item.htm?spm=a1z09.2.0.0.39082e8dzzoh6k&amp;id=730583154330&amp;_u=4vb75breb0d" xr:uid="{DEA52BA8-7799-4E4E-A94D-12EE646947B8}"/>
+    <hyperlink ref="I49" r:id="rId60" display="https://item.taobao.com/item.htm?spm=a1z09.2.0.0.39082e8dzzoh6k&amp;id=730583154330&amp;_u=4vb75breb0d" xr:uid="{D900C9A5-E47E-4527-996D-E14088476D00}"/>
+    <hyperlink ref="I60" r:id="rId61" display="https://item.taobao.com/item.htm?spm=a1z09.2.0.0.39082e8dzzoh6k&amp;id=667125626014&amp;_u=4vb75br9580&amp;sku_properties=-1:-1" xr:uid="{F1F52868-F35E-46D6-A905-8D2FC90B6759}"/>
+    <hyperlink ref="I61" r:id="rId62" display="https://item.taobao.com/item.htm?spm=a1z09.2.0.0.39082e8dzzoh6k&amp;id=667125626014&amp;_u=4vb75br9580&amp;sku_properties=-1:-1" xr:uid="{BE7821B8-1B79-49BD-918B-3A191A727282}"/>
+    <hyperlink ref="I57" r:id="rId63" display="https://item.taobao.com/item.htm?spm=a1z09.2.0.0.39082e8dzzoh6k&amp;id=666987342336&amp;_u=4vb75br6f4b" xr:uid="{1F18EDC2-6CAA-4F3F-8F3A-61665920EF31}"/>
+    <hyperlink ref="I64" r:id="rId64" display="https://detail.tmall.com/item.htm?id=672405403438&amp;spm=a1z09.2.0.0.39082e8dzzoh6k&amp;_u=4vb75br224b" xr:uid="{9FD8A98B-D8E7-4A4F-A9FB-F418EC201EEF}"/>
+    <hyperlink ref="I62" r:id="rId65" display="https://detail.tmall.com/item.htm?id=673064454087&amp;spm=a1z09.2.0.0.39082e8dzzoh6k&amp;_u=4vb75brcb7a" xr:uid="{A1F2183D-FFE1-4CAC-A7AD-0FD66DF00CBC}"/>
+    <hyperlink ref="I63" r:id="rId66" display="https://detail.tmall.com/item.htm?id=673064454087&amp;spm=a1z09.2.0.0.39082e8dzzoh6k&amp;_u=4vb75brcb7a" xr:uid="{6CAC4D1E-9FF0-4735-9182-309BCD591F0F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId55"/>
-  <drawing r:id="rId56"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId67"/>
+  <drawing r:id="rId68"/>
 </worksheet>
 </file>